--- a/Pinmap.xlsx
+++ b/Pinmap.xlsx
@@ -1,19 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hyeonje\Documents\STM32-FC\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1234A70E-4AC6-496C-A65A-2C65104CD46C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="4290" yWindow="4290" windowWidth="28800" windowHeight="15345" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Port" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Port" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Port!$A$9:$U$96</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Port!$A$9:$U$96</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -23,87 +28,87 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1747" uniqueCount="486">
-  <si>
-    <t xml:space="preserve">system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RC IN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N.C.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AF0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AF1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AF2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AF3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AF4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AF5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AF6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AF7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AF8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AF9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AF10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AF11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AF12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AF13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AF14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AF15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pin.no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Role</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Port</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SYS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIM1/2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIM3/4/5</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1747" uniqueCount="488">
+  <si>
+    <t>system</t>
+  </si>
+  <si>
+    <t>RC IN</t>
+  </si>
+  <si>
+    <t>N.C.</t>
+  </si>
+  <si>
+    <t>AF0</t>
+  </si>
+  <si>
+    <t>AF1</t>
+  </si>
+  <si>
+    <t>AF2</t>
+  </si>
+  <si>
+    <t>AF3</t>
+  </si>
+  <si>
+    <t>AF4</t>
+  </si>
+  <si>
+    <t>AF5</t>
+  </si>
+  <si>
+    <t>AF6</t>
+  </si>
+  <si>
+    <t>AF7</t>
+  </si>
+  <si>
+    <t>AF8</t>
+  </si>
+  <si>
+    <t>AF9</t>
+  </si>
+  <si>
+    <t>AF10</t>
+  </si>
+  <si>
+    <t>AF11</t>
+  </si>
+  <si>
+    <t>AF12</t>
+  </si>
+  <si>
+    <t>AF13</t>
+  </si>
+  <si>
+    <t>AF14</t>
+  </si>
+  <si>
+    <t>AF15</t>
+  </si>
+  <si>
+    <t>Pin.no</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>Port</t>
+  </si>
+  <si>
+    <t>Desc</t>
+  </si>
+  <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>SYS</t>
+  </si>
+  <si>
+    <t>TIM1/2</t>
+  </si>
+  <si>
+    <t>TIM3/4/5</t>
   </si>
   <si>
     <t xml:space="preserve"> TIM8/9/10
@@ -118,72 +123,72 @@
  xt</t>
   </si>
   <si>
-    <t xml:space="preserve">SPI3/I2Sext
+    <t>SPI3/I2Sext
  /I2S3</t>
   </si>
   <si>
-    <t xml:space="preserve">USART1/2/3/
+    <t>USART1/2/3/
  I2S3ext</t>
   </si>
   <si>
-    <t xml:space="preserve">UART4/5/
+    <t>UART4/5/
  USART6</t>
   </si>
   <si>
-    <t xml:space="preserve">CAN1/2
+    <t>CAN1/2
  TIM12/13/
  14</t>
   </si>
   <si>
-    <t xml:space="preserve">OTG_FS/ 
+    <t>OTG_FS/ 
 OTG_HS</t>
   </si>
   <si>
-    <t xml:space="preserve">ETH</t>
+    <t>ETH</t>
   </si>
   <si>
     <t xml:space="preserve"> FSMC/SDIO
  /OTG_FS</t>
   </si>
   <si>
-    <t xml:space="preserve">DCMI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-</t>
+    <t>DCMI</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
   <si>
     <t xml:space="preserve">V_BATT </t>
   </si>
   <si>
-    <t xml:space="preserve">PC0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADC123_IN10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Battery Sensor</t>
+    <t>PC0</t>
+  </si>
+  <si>
+    <t>ADC123_IN10</t>
+  </si>
+  <si>
+    <t>Battery Sensor</t>
   </si>
   <si>
     <t xml:space="preserve">OTG_HS_ULPI_
  STP </t>
   </si>
   <si>
-    <t xml:space="preserve">EVENTOUT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GYRO2_NSS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PE3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Output</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BMI323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRACED0</t>
+    <t>EVENTOUT</t>
+  </si>
+  <si>
+    <t>GYRO2_NSS</t>
+  </si>
+  <si>
+    <t>PE3</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>BMI323</t>
+  </si>
+  <si>
+    <t>TRACED0</t>
   </si>
   <si>
     <t xml:space="preserve"> USART2_CTS </t>
@@ -192,47 +197,47 @@
     <t xml:space="preserve"> FSMC_A19</t>
   </si>
   <si>
-    <t xml:space="preserve">Buzzer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PD14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIM4_CH3</t>
+    <t>Buzzer</t>
+  </si>
+  <si>
+    <t>PD14</t>
+  </si>
+  <si>
+    <t>TIM4_CH3</t>
   </si>
   <si>
     <t xml:space="preserve"> FSMC_D0 </t>
   </si>
   <si>
-    <t xml:space="preserve">CAN1_RX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PD0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAN1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FSMC_D2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAN1_STBY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ETH_MII_RXD0
+    <t>CAN1_RX</t>
+  </si>
+  <si>
+    <t>PD0</t>
+  </si>
+  <si>
+    <t>CAN1</t>
+  </si>
+  <si>
+    <t>FSMC_D2</t>
+  </si>
+  <si>
+    <t>CAN1_STBY</t>
+  </si>
+  <si>
+    <t>PC4</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>ETH_MII_RXD0
  ETH_RMII_RXD0</t>
   </si>
   <si>
     <t xml:space="preserve">CAN1_TX </t>
   </si>
   <si>
-    <t xml:space="preserve">PD1</t>
+    <t>PD1</t>
   </si>
   <si>
     <t xml:space="preserve"> FSMC_D3 </t>
@@ -241,19 +246,19 @@
     <t xml:space="preserve">CAN2_RX </t>
   </si>
   <si>
-    <t xml:space="preserve">PB12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAN2_RX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAN2</t>
+    <t>PB12</t>
+  </si>
+  <si>
+    <t>CAN2_RX</t>
+  </si>
+  <si>
+    <t>CAN2</t>
   </si>
   <si>
     <t xml:space="preserve"> TIM1_BKIN</t>
   </si>
   <si>
-    <t xml:space="preserve">I2C2_
+    <t>I2C2_
  SMBA</t>
   </si>
   <si>
@@ -271,27 +276,27 @@
  D5 </t>
   </si>
   <si>
-    <t xml:space="preserve">ETH _MII_TXD0
+    <t>ETH _MII_TXD0
  ETH _RMII_TXD0</t>
   </si>
   <si>
     <t xml:space="preserve"> OTG_HS_ID</t>
   </si>
   <si>
-    <t xml:space="preserve">CAN2_STBY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ETH _MII_RXD1
+    <t>CAN2_STBY</t>
+  </si>
+  <si>
+    <t>PC5</t>
+  </si>
+  <si>
+    <t>ETH _MII_RXD1
  ETH _RMII_RXD1</t>
   </si>
   <si>
-    <t xml:space="preserve">CAN2_TX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PB6</t>
+    <t>CAN2_TX</t>
+  </si>
+  <si>
+    <t>PB6</t>
   </si>
   <si>
     <t xml:space="preserve"> CAN2_TX</t>
@@ -300,69 +305,69 @@
     <t xml:space="preserve"> TIM4_CH1</t>
   </si>
   <si>
-    <t xml:space="preserve">I2C1_SCL</t>
+    <t>I2C1_SCL</t>
   </si>
   <si>
     <t xml:space="preserve"> USART1_TX </t>
   </si>
   <si>
-    <t xml:space="preserve">DCMI_D5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NRST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Debug</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SWCLK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PA14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JTCK_SWCLK</t>
+    <t>DCMI_D5</t>
+  </si>
+  <si>
+    <t>NRST</t>
+  </si>
+  <si>
+    <t>Debug</t>
+  </si>
+  <si>
+    <t>SWCLK</t>
+  </si>
+  <si>
+    <t>PA14</t>
+  </si>
+  <si>
+    <t>JTCK_SWCLK</t>
   </si>
   <si>
     <t xml:space="preserve">JTCK-
 SWCLK </t>
   </si>
   <si>
-    <t xml:space="preserve">SWDIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PA13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JTMS_SWDIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JTMS-
+    <t>SWDIO</t>
+  </si>
+  <si>
+    <t>PA13</t>
+  </si>
+  <si>
+    <t>JTMS_SWDIO</t>
+  </si>
+  <si>
+    <t>JTMS-
 SWDIO</t>
   </si>
   <si>
-    <t xml:space="preserve">FLASH_NSS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flash Memory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GPS1_BUZZER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIM8_CH3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GPS1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIM3_CH3</t>
+    <t>FLASH_NSS</t>
+  </si>
+  <si>
+    <t>PC13</t>
+  </si>
+  <si>
+    <t>Flash Memory</t>
+  </si>
+  <si>
+    <t>GPS1_BUZZER</t>
+  </si>
+  <si>
+    <t>PC8</t>
+  </si>
+  <si>
+    <t>TIM8_CH3</t>
+  </si>
+  <si>
+    <t>GPS1</t>
+  </si>
+  <si>
+    <t>TIM3_CH3</t>
   </si>
   <si>
     <t xml:space="preserve">TIM8_CH3 </t>
@@ -377,10 +382,10 @@
     <t xml:space="preserve">DCMI_D2 </t>
   </si>
   <si>
-    <t xml:space="preserve">GPS1_SW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PD13</t>
+    <t>GPS1_SW</t>
+  </si>
+  <si>
+    <t>PD13</t>
   </si>
   <si>
     <t xml:space="preserve"> TIM4_CH2</t>
@@ -389,10 +394,10 @@
     <t xml:space="preserve">FSMC_A18 </t>
   </si>
   <si>
-    <t xml:space="preserve">GPS1_SW_LED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PD10</t>
+    <t>GPS1_SW_LED</t>
+  </si>
+  <si>
+    <t>PD10</t>
   </si>
   <si>
     <t xml:space="preserve">USART3_CK </t>
@@ -401,16 +406,16 @@
     <t xml:space="preserve"> FSMC_D15</t>
   </si>
   <si>
-    <t xml:space="preserve">GPS1_RX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC11</t>
+    <t>GPS1_RX</t>
+  </si>
+  <si>
+    <t>PC11</t>
   </si>
   <si>
     <t xml:space="preserve">UART4_RX </t>
   </si>
   <si>
-    <t xml:space="preserve">I2S3ext_SD</t>
+    <t>I2S3ext_SD</t>
   </si>
   <si>
     <t xml:space="preserve"> SPI3_MISO/</t>
@@ -422,28 +427,28 @@
     <t xml:space="preserve"> SDIO_D3 </t>
   </si>
   <si>
-    <t xml:space="preserve">DCMI_D4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GPS1_SDA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I2C3_SDA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MCO2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIM3_CH4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIM8_CH4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I2S_CKIN</t>
+    <t>DCMI_D4</t>
+  </si>
+  <si>
+    <t>GPS1_SDA</t>
+  </si>
+  <si>
+    <t>PC9</t>
+  </si>
+  <si>
+    <t>I2C3_SDA</t>
+  </si>
+  <si>
+    <t>MCO2</t>
+  </si>
+  <si>
+    <t>TIM3_CH4</t>
+  </si>
+  <si>
+    <t>TIM8_CH4</t>
+  </si>
+  <si>
+    <t>I2S_CKIN</t>
   </si>
   <si>
     <t xml:space="preserve"> SDIO_D1</t>
@@ -452,16 +457,16 @@
     <t xml:space="preserve">DCMI_D3 </t>
   </si>
   <si>
-    <t xml:space="preserve">GPS1_TX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC10</t>
+    <t>GPS1_TX</t>
+  </si>
+  <si>
+    <t>PC10</t>
   </si>
   <si>
     <t xml:space="preserve"> UART4_TX</t>
   </si>
   <si>
-    <t xml:space="preserve">SPI3_SCK/
+    <t>SPI3_SCK/
  I2S3_CK</t>
   </si>
   <si>
@@ -474,40 +479,40 @@
     <t xml:space="preserve">DCMI_D8 </t>
   </si>
   <si>
-    <t xml:space="preserve">GPS1_SCL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PA8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I2C3_SCL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MCO1</t>
+    <t>GPS1_SCL</t>
+  </si>
+  <si>
+    <t>PA8</t>
+  </si>
+  <si>
+    <t>I2C3_SCL</t>
+  </si>
+  <si>
+    <t>MCO1</t>
   </si>
   <si>
     <t xml:space="preserve">TIM1_CH1 </t>
   </si>
   <si>
-    <t xml:space="preserve">USART1_CK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OTG_FS_SOF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GPS2_RX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PD2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UART5_RX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GPS2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIM3_ETR</t>
+    <t>USART1_CK</t>
+  </si>
+  <si>
+    <t>OTG_FS_SOF</t>
+  </si>
+  <si>
+    <t>GPS2_RX</t>
+  </si>
+  <si>
+    <t>PD2</t>
+  </si>
+  <si>
+    <t>UART5_RX</t>
+  </si>
+  <si>
+    <t>GPS2</t>
+  </si>
+  <si>
+    <t>TIM3_ETR</t>
   </si>
   <si>
     <t xml:space="preserve"> SDIO_CMD </t>
@@ -516,20 +521,20 @@
     <t xml:space="preserve">DCMI_D11 </t>
   </si>
   <si>
-    <t xml:space="preserve">GPS2_TX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC12</t>
+    <t>GPS2_TX</t>
+  </si>
+  <si>
+    <t>PC12</t>
   </si>
   <si>
     <t xml:space="preserve">UART5_TX </t>
   </si>
   <si>
-    <t xml:space="preserve">SPI3_MOSI 
+    <t>SPI3_MOSI 
 I2S3_SD</t>
   </si>
   <si>
-    <t xml:space="preserve">USART3_CK</t>
+    <t>USART3_CK</t>
   </si>
   <si>
     <t xml:space="preserve"> SDIO_CK </t>
@@ -541,7 +546,7 @@
     <t xml:space="preserve">GPS2_SCL </t>
   </si>
   <si>
-    <t xml:space="preserve">PB10</t>
+    <t>PB10</t>
   </si>
   <si>
     <t xml:space="preserve"> I2C2_SCL </t>
@@ -550,7 +555,7 @@
     <t xml:space="preserve"> TIM2_CH3 </t>
   </si>
   <si>
-    <t xml:space="preserve">SPI2_SCK 
+    <t>SPI2_SCK 
 I2S2_CK</t>
   </si>
   <si>
@@ -561,16 +566,16 @@
  D3 </t>
   </si>
   <si>
-    <t xml:space="preserve">ETH_ MII_RX_ER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GPS2_SDA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PB11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I2C2_SDA</t>
+    <t>ETH_ MII_RX_ER</t>
+  </si>
+  <si>
+    <t>GPS2_SDA</t>
+  </si>
+  <si>
+    <t>PB11</t>
+  </si>
+  <si>
+    <t>I2C2_SDA</t>
   </si>
   <si>
     <t xml:space="preserve"> TIM2_CH4 </t>
@@ -583,16 +588,16 @@
  D4 </t>
   </si>
   <si>
-    <t xml:space="preserve">ETH _MII_TX_EN        ETH _RMII_TX_EN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I2C_SCL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PB8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I2C</t>
+    <t>ETH _MII_TX_EN        ETH _RMII_TX_EN</t>
+  </si>
+  <si>
+    <t>I2C_SCL</t>
+  </si>
+  <si>
+    <t>PB8</t>
+  </si>
+  <si>
+    <t>I2C</t>
   </si>
   <si>
     <t xml:space="preserve"> TIM4_CH3 </t>
@@ -607,7 +612,7 @@
     <t xml:space="preserve">ETH _MII_TXD3 </t>
   </si>
   <si>
-    <t xml:space="preserve">SDIO_D4</t>
+    <t>SDIO_D4</t>
   </si>
   <si>
     <t xml:space="preserve">DCMI_D6 </t>
@@ -616,7 +621,7 @@
     <t xml:space="preserve">I2C_SDA </t>
   </si>
   <si>
-    <t xml:space="preserve">PB9</t>
+    <t>PB9</t>
   </si>
   <si>
     <t xml:space="preserve">I2C1_SDA </t>
@@ -628,32 +633,32 @@
     <t xml:space="preserve">TIM11_CH1 </t>
   </si>
   <si>
-    <t xml:space="preserve">SPI2_NSS
+    <t>SPI2_NSS
  I2S2_WS</t>
   </si>
   <si>
     <t xml:space="preserve"> CAN1_TX </t>
   </si>
   <si>
-    <t xml:space="preserve">SDIO_D5</t>
+    <t>SDIO_D5</t>
   </si>
   <si>
     <t xml:space="preserve">DCMI_D7 </t>
   </si>
   <si>
-    <t xml:space="preserve">GYRO1_NSS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PE5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ICM-42688-P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRACED2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIM9_CH1</t>
+    <t>GYRO1_NSS</t>
+  </si>
+  <si>
+    <t>PE5</t>
+  </si>
+  <si>
+    <t>ICM-42688-P</t>
+  </si>
+  <si>
+    <t>TRACED2</t>
+  </si>
+  <si>
+    <t>TIM9_CH1</t>
   </si>
   <si>
     <t xml:space="preserve">USART2_TX </t>
@@ -662,80 +667,80 @@
     <t xml:space="preserve">FSMC_A21 </t>
   </si>
   <si>
-    <t xml:space="preserve">DCMI_D6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPI1_MISO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PA6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ICM-42688-P
+    <t>DCMI_D6</t>
+  </si>
+  <si>
+    <t>SPI1_MISO</t>
+  </si>
+  <si>
+    <t>PA6</t>
+  </si>
+  <si>
+    <t>ICM-42688-P
 LPS22HH</t>
   </si>
   <si>
     <t xml:space="preserve">TIM1_BKIN </t>
   </si>
   <si>
-    <t xml:space="preserve">TIM3_CH1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIM8_BKIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIM13_CH1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DCMI_ PIXCLK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPI1_MOSI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PA7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIM1_CH1N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIM3_CH2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIM8_CH1N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIM14_CH1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ETH_MII _RX_DV 
+    <t>TIM3_CH1</t>
+  </si>
+  <si>
+    <t>TIM8_BKIN</t>
+  </si>
+  <si>
+    <t>TIM13_CH1</t>
+  </si>
+  <si>
+    <t>DCMI_ PIXCLK</t>
+  </si>
+  <si>
+    <t>SPI1_MOSI</t>
+  </si>
+  <si>
+    <t>PA7</t>
+  </si>
+  <si>
+    <t>TIM1_CH1N</t>
+  </si>
+  <si>
+    <t>TIM3_CH2</t>
+  </si>
+  <si>
+    <t>TIM8_CH1N</t>
+  </si>
+  <si>
+    <t>TIM14_CH1</t>
+  </si>
+  <si>
+    <t>ETH_MII _RX_DV 
 ETH_RMII 
 _CRS_DV</t>
   </si>
   <si>
-    <t xml:space="preserve">SPI1_SCK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PA5</t>
+    <t>SPI1_SCK</t>
+  </si>
+  <si>
+    <t>PA5</t>
   </si>
   <si>
     <t xml:space="preserve">TIM2_CH1_
  ETR </t>
   </si>
   <si>
-    <t xml:space="preserve">OTG_HS_ULPI_ CK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED_BLUE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PE2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRACECLK</t>
+    <t>OTG_HS_ULPI_ CK</t>
+  </si>
+  <si>
+    <t>LED_BLUE</t>
+  </si>
+  <si>
+    <t>PE2</t>
+  </si>
+  <si>
+    <t>LED</t>
+  </si>
+  <si>
+    <t>TRACECLK</t>
   </si>
   <si>
     <t xml:space="preserve"> ETH _MII_TXD3 </t>
@@ -744,43 +749,43 @@
     <t xml:space="preserve">FSMC_A23  </t>
   </si>
   <si>
-    <t xml:space="preserve">LED_GREEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PE1</t>
+    <t>LED_GREEN</t>
+  </si>
+  <si>
+    <t>PE1</t>
   </si>
   <si>
     <t xml:space="preserve">FSMC_NBL1 </t>
   </si>
   <si>
-    <t xml:space="preserve">DCMI_D3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED_RED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PE0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIM4_ETR</t>
+    <t>DCMI_D3</t>
+  </si>
+  <si>
+    <t>LED_RED</t>
+  </si>
+  <si>
+    <t>PE0</t>
+  </si>
+  <si>
+    <t>TIM4_ETR</t>
   </si>
   <si>
     <t xml:space="preserve"> FSMC_NBL0 </t>
   </si>
   <si>
-    <t xml:space="preserve">DCMI_D2</t>
+    <t>DCMI_D2</t>
   </si>
   <si>
     <t xml:space="preserve">MAG_NSS </t>
   </si>
   <si>
-    <t xml:space="preserve">PE4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIS2MDLTR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRACED1</t>
+    <t>PE4</t>
+  </si>
+  <si>
+    <t>LIS2MDLTR</t>
+  </si>
+  <si>
+    <t>TRACED1</t>
   </si>
   <si>
     <t xml:space="preserve"> USART2_RTS </t>
@@ -792,17 +797,17 @@
     <t xml:space="preserve">DCMI_D4 </t>
   </si>
   <si>
-    <t xml:space="preserve">SPI3_MISO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PB4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIS2MDLTR
+    <t>SPI3_MISO</t>
+  </si>
+  <si>
+    <t>PB4</t>
+  </si>
+  <si>
+    <t>LIS2MDLTR
 BMI323</t>
   </si>
   <si>
-    <t xml:space="preserve">NJTRST</t>
+    <t>NJTRST</t>
   </si>
   <si>
     <t xml:space="preserve"> TIM3_CH1 </t>
@@ -814,16 +819,16 @@
     <t xml:space="preserve"> I2S3ext_SD</t>
   </si>
   <si>
-    <t xml:space="preserve">SPI3_MOSI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PB5</t>
+    <t>SPI3_MOSI</t>
+  </si>
+  <si>
+    <t>PB5</t>
   </si>
   <si>
     <t xml:space="preserve"> TIM3_CH2 </t>
   </si>
   <si>
-    <t xml:space="preserve">I2C1_SMB
+    <t>I2C1_SMB
  A</t>
   </si>
   <si>
@@ -838,16 +843,16 @@
  D7 </t>
   </si>
   <si>
-    <t xml:space="preserve">ETH _PPS_OUT</t>
+    <t>ETH _PPS_OUT</t>
   </si>
   <si>
     <t xml:space="preserve"> DCMI_D10 </t>
   </si>
   <si>
-    <t xml:space="preserve">SPI3_SCK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PB3</t>
+    <t>SPI3_SCK</t>
+  </si>
+  <si>
+    <t>PB3</t>
   </si>
   <si>
     <t xml:space="preserve"> JTDO/
@@ -855,7 +860,7 @@
  WO </t>
   </si>
   <si>
-    <t xml:space="preserve">TIM2_CH2</t>
+    <t>TIM2_CH2</t>
   </si>
   <si>
     <t xml:space="preserve"> SPI1_SCK </t>
@@ -865,34 +870,34 @@
 I2S3_CK </t>
   </si>
   <si>
-    <t xml:space="preserve">BARO_INT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PE7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LPS22HH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIM1_ETR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USART2_CK</t>
+    <t>BARO_INT</t>
+  </si>
+  <si>
+    <t>PE7</t>
+  </si>
+  <si>
+    <t>LPS22HH</t>
+  </si>
+  <si>
+    <t>TIM1_ETR</t>
+  </si>
+  <si>
+    <t>USART2_CK</t>
   </si>
   <si>
     <t xml:space="preserve"> FSMC_D4 </t>
   </si>
   <si>
-    <t xml:space="preserve">BARO_NSS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PE6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRACED3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIM9_CH2</t>
+    <t>BARO_NSS</t>
+  </si>
+  <si>
+    <t>PE6</t>
+  </si>
+  <si>
+    <t>TRACED3</t>
+  </si>
+  <si>
+    <t>TIM9_CH2</t>
   </si>
   <si>
     <t xml:space="preserve">USART2_RX </t>
@@ -901,38 +906,38 @@
     <t xml:space="preserve"> FSMC_A22 </t>
   </si>
   <si>
-    <t xml:space="preserve">MSD_DETECT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Input</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Micro SD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSD_NSS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PD7</t>
+    <t>MSD_DETECT</t>
+  </si>
+  <si>
+    <t>PC15</t>
+  </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>Micro SD</t>
+  </si>
+  <si>
+    <t>MSD_NSS</t>
+  </si>
+  <si>
+    <t>PD7</t>
   </si>
   <si>
     <t xml:space="preserve">FSMC_NE1/
  FSMC_NCE2 </t>
   </si>
   <si>
-    <t xml:space="preserve">SPI2_MISO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PB14</t>
+    <t>SPI2_MISO</t>
+  </si>
+  <si>
+    <t>PB14</t>
   </si>
   <si>
     <t xml:space="preserve"> SPI2_MISO</t>
   </si>
   <si>
-    <t xml:space="preserve">Micro SD
+    <t>Micro SD
 Flash Memory</t>
   </si>
   <si>
@@ -954,10 +959,10 @@
     <t xml:space="preserve">OTG_HS_DM </t>
   </si>
   <si>
-    <t xml:space="preserve">SPI2_MOSI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PB15</t>
+    <t>SPI2_MOSI</t>
+  </si>
+  <si>
+    <t>PB15</t>
   </si>
   <si>
     <t xml:space="preserve"> RTC_
@@ -970,7 +975,7 @@
     <t xml:space="preserve"> TIM8_CH3N</t>
   </si>
   <si>
-    <t xml:space="preserve">SPI2_MOSI 
+    <t>SPI2_MOSI 
 I2S2_SD</t>
   </si>
   <si>
@@ -980,10 +985,10 @@
     <t xml:space="preserve">OTG_HS_DP </t>
   </si>
   <si>
-    <t xml:space="preserve">SPI2_SCK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PB13</t>
+    <t>SPI2_SCK</t>
+  </si>
+  <si>
+    <t>PB13</t>
   </si>
   <si>
     <t xml:space="preserve"> TIM1_CH1N </t>
@@ -999,116 +1004,116 @@
  D6 </t>
   </si>
   <si>
-    <t xml:space="preserve">ETH _MII_TXD1 
+    <t>ETH _MII_TXD1 
 ETH _RMII_TXD1</t>
   </si>
   <si>
-    <t xml:space="preserve">PM_CURRENT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADC123_IN12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Power</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OTG_HS_ULPI_
+    <t>PM_CURRENT</t>
+  </si>
+  <si>
+    <t>PC2</t>
+  </si>
+  <si>
+    <t>ADC123_IN12</t>
+  </si>
+  <si>
+    <t>Power</t>
+  </si>
+  <si>
+    <t>OTG_HS_ULPI_
  DIR</t>
   </si>
   <si>
     <t xml:space="preserve">ETH _MII_TXD2 </t>
   </si>
   <si>
-    <t xml:space="preserve">PM_VOLTAGE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADC123_IN13</t>
+    <t>PM_VOLTAGE</t>
+  </si>
+  <si>
+    <t>PC3</t>
+  </si>
+  <si>
+    <t>ADC123_IN13</t>
   </si>
   <si>
     <t xml:space="preserve">OTG_HS_ULPI_
  NXT </t>
   </si>
   <si>
-    <t xml:space="preserve">ETH 
+    <t>ETH 
 _MII_TX_CLK</t>
   </si>
   <si>
-    <t xml:space="preserve">DSM/SBUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PA10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USART1_RX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIM1_CH3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OTG_FS_ID</t>
+    <t>DSM/SBUS</t>
+  </si>
+  <si>
+    <t>PA10</t>
+  </si>
+  <si>
+    <t>USART1_RX</t>
+  </si>
+  <si>
+    <t>TIM1_CH3</t>
+  </si>
+  <si>
+    <t>OTG_FS_ID</t>
   </si>
   <si>
     <t xml:space="preserve">DCMI_D1 </t>
   </si>
   <si>
-    <t xml:space="preserve">PPM_IN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PE14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIM1_CH4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FSMC_D11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RSSI_IN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADC123_IN11</t>
+    <t>PPM_IN</t>
+  </si>
+  <si>
+    <t>PE14</t>
+  </si>
+  <si>
+    <t>TIM1_CH4</t>
+  </si>
+  <si>
+    <t>FSMC_D11</t>
+  </si>
+  <si>
+    <t>RSSI_IN</t>
+  </si>
+  <si>
+    <t>PC1</t>
+  </si>
+  <si>
+    <t>ADC123_IN11</t>
   </si>
   <si>
     <t xml:space="preserve"> ETH_MDC</t>
   </si>
   <si>
-    <t xml:space="preserve">SRXL2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PA9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USART1_TX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIM1_CH2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2C3_ SMBA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DCMI_D0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AUX_CH1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PB0</t>
+    <t>SRXL2</t>
+  </si>
+  <si>
+    <t>PA9</t>
+  </si>
+  <si>
+    <t>USART1_TX</t>
+  </si>
+  <si>
+    <t>TIM1_CH2</t>
+  </si>
+  <si>
+    <t>2C3_ SMBA</t>
+  </si>
+  <si>
+    <t>DCMI_D0</t>
+  </si>
+  <si>
+    <t>AUX_CH1</t>
+  </si>
+  <si>
+    <t>PB0</t>
   </si>
   <si>
     <t xml:space="preserve">TIM3_CH3 </t>
   </si>
   <si>
-    <t xml:space="preserve">Servo Out</t>
+    <t>Servo Out</t>
   </si>
   <si>
     <t xml:space="preserve">TIM8_CH2N </t>
@@ -1118,13 +1123,13 @@
  D1 </t>
   </si>
   <si>
-    <t xml:space="preserve">ETH _MII_RXD2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AUX_CH2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PB1</t>
+    <t>ETH _MII_RXD2</t>
+  </si>
+  <si>
+    <t>AUX_CH2</t>
+  </si>
+  <si>
+    <t>PB1</t>
   </si>
   <si>
     <t xml:space="preserve">TIM3_CH4 </t>
@@ -1133,17 +1138,17 @@
     <t xml:space="preserve">TIM8_CH3N </t>
   </si>
   <si>
-    <t xml:space="preserve">OTG_HS_ULPI_
+    <t>OTG_HS_ULPI_
  D2</t>
   </si>
   <si>
-    <t xml:space="preserve">ETH _MII_RXD3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AUX_CH3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PE11</t>
+    <t>ETH _MII_RXD3</t>
+  </si>
+  <si>
+    <t>AUX_CH3</t>
+  </si>
+  <si>
+    <t>PE11</t>
   </si>
   <si>
     <t xml:space="preserve">USART3_CTS </t>
@@ -1152,16 +1157,16 @@
     <t xml:space="preserve"> FSMC_D8 </t>
   </si>
   <si>
-    <t xml:space="preserve">PE13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FSMC_D10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAIN_CH1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PB7</t>
+    <t>PE13</t>
+  </si>
+  <si>
+    <t>FSMC_D10</t>
+  </si>
+  <si>
+    <t>MAIN_CH1</t>
+  </si>
+  <si>
+    <t>PB7</t>
   </si>
   <si>
     <t xml:space="preserve"> TIM4_CH2 </t>
@@ -1177,13 +1182,13 @@
  C </t>
   </si>
   <si>
-    <t xml:space="preserve">MAIN_CH2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIM8_CH1</t>
+    <t>MAIN_CH2</t>
+  </si>
+  <si>
+    <t>PC6</t>
+  </si>
+  <si>
+    <t>TIM8_CH1</t>
   </si>
   <si>
     <t xml:space="preserve"> USART6_TX </t>
@@ -1195,97 +1200,97 @@
     <t xml:space="preserve">DCMI_D0 </t>
   </si>
   <si>
-    <t xml:space="preserve">MAIN_CH4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PD15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIM4_CH4</t>
+    <t>MAIN_CH4</t>
+  </si>
+  <si>
+    <t>PD15</t>
+  </si>
+  <si>
+    <t>TIM4_CH4</t>
   </si>
   <si>
     <t xml:space="preserve"> FSMC_D1</t>
   </si>
   <si>
-    <t xml:space="preserve">MAIN_CH5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PA0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIM 5_CH1</t>
+    <t>MAIN_CH5</t>
+  </si>
+  <si>
+    <t>PA0</t>
+  </si>
+  <si>
+    <t>TIM 5_CH1</t>
   </si>
   <si>
     <t xml:space="preserve"> TIM8_ETR</t>
   </si>
   <si>
-    <t xml:space="preserve">UART4_TX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ETH_MII_CRS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAIN_CH6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PA1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIM5_CH2</t>
+    <t>UART4_TX</t>
+  </si>
+  <si>
+    <t>ETH_MII_CRS</t>
+  </si>
+  <si>
+    <t>MAIN_CH6</t>
+  </si>
+  <si>
+    <t>PA1</t>
+  </si>
+  <si>
+    <t>TIM5_CH2</t>
   </si>
   <si>
     <t xml:space="preserve"> TIM2_CH2 </t>
   </si>
   <si>
-    <t xml:space="preserve">USART2_RTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UART4_RX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ETH_MII 
+    <t>USART2_RTS</t>
+  </si>
+  <si>
+    <t>UART4_RX</t>
+  </si>
+  <si>
+    <t>ETH_MII 
 _RX_CLK
  ETH_RMII__REF
  _CLK</t>
   </si>
   <si>
-    <t xml:space="preserve">MAIN_CH7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PA2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIM5_CH3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIM2_CH3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ETH_MDIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAIN_CH8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PA3</t>
+    <t>MAIN_CH7</t>
+  </si>
+  <si>
+    <t>PA2</t>
+  </si>
+  <si>
+    <t>TIM5_CH3</t>
+  </si>
+  <si>
+    <t>TIM2_CH3</t>
+  </si>
+  <si>
+    <t>ETH_MDIO</t>
+  </si>
+  <si>
+    <t>MAIN_CH8</t>
+  </si>
+  <si>
+    <t>PA3</t>
   </si>
   <si>
     <t xml:space="preserve">TIM5_CH4 </t>
   </si>
   <si>
-    <t xml:space="preserve">TIM2_CH4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OTG_HS_ULPI_ D0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ETH _MII_COL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIM8_CH2</t>
+    <t>TIM2_CH4</t>
+  </si>
+  <si>
+    <t>OTG_HS_ULPI_ D0</t>
+  </si>
+  <si>
+    <t>ETH _MII_COL</t>
+  </si>
+  <si>
+    <t>PC7</t>
+  </si>
+  <si>
+    <t>TIM8_CH2</t>
   </si>
   <si>
     <t xml:space="preserve"> I2S3_MCK</t>
@@ -1297,55 +1302,55 @@
     <t xml:space="preserve"> SDIO_D7 </t>
   </si>
   <si>
-    <t xml:space="preserve">DCMI_D1</t>
+    <t>DCMI_D1</t>
   </si>
   <si>
     <t xml:space="preserve">Telem1_CTS </t>
   </si>
   <si>
-    <t xml:space="preserve">PD3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Telem1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FSMC_CLK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Telem1_RTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PD4</t>
+    <t>PD3</t>
+  </si>
+  <si>
+    <t>Telem1</t>
+  </si>
+  <si>
+    <t>FSMC_CLK</t>
+  </si>
+  <si>
+    <t>Telem1_RTS</t>
+  </si>
+  <si>
+    <t>PD4</t>
   </si>
   <si>
     <t xml:space="preserve"> FSMC_NOE</t>
   </si>
   <si>
-    <t xml:space="preserve">Telem1_RX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PD6</t>
+    <t>Telem1_RX</t>
+  </si>
+  <si>
+    <t>PD6</t>
   </si>
   <si>
     <t xml:space="preserve"> FSMC_NWAIT</t>
   </si>
   <si>
-    <t xml:space="preserve">Telem1_TX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PD5</t>
+    <t>Telem1_TX</t>
+  </si>
+  <si>
+    <t>PD5</t>
   </si>
   <si>
     <t xml:space="preserve"> FSMC_NEW</t>
   </si>
   <si>
-    <t xml:space="preserve">Telem2_CTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PD11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Telem2</t>
+    <t>Telem2_CTS</t>
+  </si>
+  <si>
+    <t>PD11</t>
+  </si>
+  <si>
+    <t>Telem2</t>
   </si>
   <si>
     <t xml:space="preserve">FSMC_A16 </t>
@@ -1354,7 +1359,7 @@
     <t xml:space="preserve">Telem2_RTS </t>
   </si>
   <si>
-    <t xml:space="preserve">PD12</t>
+    <t>PD12</t>
   </si>
   <si>
     <t xml:space="preserve">USART3_RTS </t>
@@ -1363,22 +1368,22 @@
     <t xml:space="preserve"> FSMC_A17</t>
   </si>
   <si>
-    <t xml:space="preserve">Telem2_RX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PD9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USART3_RX</t>
+    <t>Telem2_RX</t>
+  </si>
+  <si>
+    <t>PD9</t>
+  </si>
+  <si>
+    <t>USART3_RX</t>
   </si>
   <si>
     <t xml:space="preserve"> FSMC_D14 </t>
   </si>
   <si>
-    <t xml:space="preserve">Telem2_TX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PD8</t>
+    <t>Telem2_TX</t>
+  </si>
+  <si>
+    <t>PD8</t>
   </si>
   <si>
     <t xml:space="preserve">USART3_TX </t>
@@ -1387,184 +1392,174 @@
     <t xml:space="preserve"> FSMC_D13 </t>
   </si>
   <si>
-    <t xml:space="preserve">USB_D-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PA11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OTG_FS_DM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USB C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USART1_CTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USB_D+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PA12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OTG_FS_DP</t>
+    <t>USB_D-</t>
+  </si>
+  <si>
+    <t>PA11</t>
+  </si>
+  <si>
+    <t>OTG_FS_DM</t>
+  </si>
+  <si>
+    <t>USB C</t>
+  </si>
+  <si>
+    <t>USART1_CTS</t>
+  </si>
+  <si>
+    <t>USB_D+</t>
+  </si>
+  <si>
+    <t>PA12</t>
+  </si>
+  <si>
+    <t>OTG_FS_DP</t>
   </si>
   <si>
     <t xml:space="preserve">TIM1_ETR </t>
   </si>
   <si>
-    <t xml:space="preserve">USART1_RTS</t>
+    <t>USART1_RTS</t>
   </si>
   <si>
     <t xml:space="preserve"> CAN1_TX</t>
   </si>
   <si>
-    <t xml:space="preserve">3.3V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VREF+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOOT1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PB2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOOTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PA15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JTDI</t>
+    <t>3.3V</t>
+  </si>
+  <si>
+    <t>VREF+</t>
+  </si>
+  <si>
+    <t>BOOT1</t>
+  </si>
+  <si>
+    <t>PB2</t>
+  </si>
+  <si>
+    <t>BOOTO</t>
+  </si>
+  <si>
+    <t>PA15</t>
+  </si>
+  <si>
+    <t>JTDI</t>
   </si>
   <si>
     <t xml:space="preserve">TIM 2_CH1 
 TIM 2_ETR </t>
   </si>
   <si>
-    <t xml:space="preserve">SPI1_NSS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPI3_NSS/
+    <t>SPI1_NSS</t>
+  </si>
+  <si>
+    <t>SPI3_NSS/
  I2S3_WS</t>
   </si>
   <si>
-    <t xml:space="preserve">PA4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPI3_NSS I2S3_WS</t>
+    <t>PA4</t>
+  </si>
+  <si>
+    <t>SPI3_NSS I2S3_WS</t>
   </si>
   <si>
     <t xml:space="preserve">USART2_CK </t>
   </si>
   <si>
-    <t xml:space="preserve">OTG_HS_SOF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DCMI_ HSYNC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PE10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIM1_CH2N</t>
+    <t>OTG_HS_SOF</t>
+  </si>
+  <si>
+    <t>DCMI_ HSYNC</t>
+  </si>
+  <si>
+    <t>PC14</t>
+  </si>
+  <si>
+    <t>PE10</t>
+  </si>
+  <si>
+    <t>TIM1_CH2N</t>
   </si>
   <si>
     <t xml:space="preserve"> FSMC_D7</t>
   </si>
   <si>
-    <t xml:space="preserve">PE12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIM1_CH3N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FSMC_D9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PE15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIM1_BKIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FSMC_D12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PE8</t>
+    <t>PE12</t>
+  </si>
+  <si>
+    <t>TIM1_CH3N</t>
+  </si>
+  <si>
+    <t>FSMC_D9</t>
+  </si>
+  <si>
+    <t>PE15</t>
+  </si>
+  <si>
+    <t>TIM1_BKIN</t>
+  </si>
+  <si>
+    <t>FSMC_D12</t>
+  </si>
+  <si>
+    <t>PE8</t>
   </si>
   <si>
     <t xml:space="preserve">  FSMC_D5 </t>
   </si>
   <si>
-    <t xml:space="preserve">PE9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIM1_CH1</t>
+    <t>PE9</t>
+  </si>
+  <si>
+    <t>TIM1_CH1</t>
   </si>
   <si>
     <t xml:space="preserve">  FSMC_D6  </t>
   </si>
   <si>
-    <t xml:space="preserve">OSC_IN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PH0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OSC_OUT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PH1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VCAP1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VCAP_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VCAP2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VCAP_2</t>
+    <t>OSC_IN</t>
+  </si>
+  <si>
+    <t>PH0</t>
+  </si>
+  <si>
+    <t>OSC_OUT</t>
+  </si>
+  <si>
+    <t>PH1</t>
+  </si>
+  <si>
+    <t>VCAP1</t>
+  </si>
+  <si>
+    <t>VCAP_1</t>
+  </si>
+  <si>
+    <t>VCAP2</t>
+  </si>
+  <si>
+    <t>VCAP_2</t>
+  </si>
+  <si>
+    <t>AUX_CH4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAIN_CH3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1581,12 +1576,18 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <color rgb="FFC9211E"/>
       <name val="Noto Sans CJK KR"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1616,237 +1617,173 @@
     </fill>
   </fills>
   <borders count="6">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="thick"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="thick"/>
-      <bottom style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="26">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+  <cellStyles count="1">
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFDDDDDD"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFDEE6EF"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFE0C2CD"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC9211E"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1905,64 +1842,76 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0e2841"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="e8e8e8"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="e97132"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196b24"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0f9ed5"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="a02b93"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4ea72e"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
         <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607d"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -1994,7 +1943,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -2018,7 +1967,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -2078,50 +2027,50 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:U96"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B13" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="42.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.43"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="8.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="16.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="19.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="9.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="10.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="11.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="1" width="10.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="17.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="12.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="10.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="11.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="16.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="14.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="14.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="14.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="7.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="11.19"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="22" style="1" width="8.62"/>
+    <col min="1" max="1" width="6.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.625" style="1"/>
+    <col min="4" max="4" width="16.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.75" style="1" customWidth="1"/>
+    <col min="7" max="8" width="10.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.875" style="1" customWidth="1"/>
+    <col min="10" max="11" width="10.625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="17.5" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.75" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.75" style="1" customWidth="1"/>
+    <col min="16" max="16" width="16.25" style="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5" style="1" customWidth="1"/>
+    <col min="18" max="18" width="14.375" style="1" customWidth="1"/>
+    <col min="19" max="19" width="14.125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="7.875" style="1" customWidth="1"/>
+    <col min="21" max="21" width="11.25" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:21" ht="12.75" customHeight="1">
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -2139,7 +2088,7 @@
       <c r="T1" s="3"/>
       <c r="U1" s="3"/>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:21" ht="12.75" customHeight="1">
       <c r="B2" s="4"/>
       <c r="C2" s="5" t="s">
         <v>0</v>
@@ -2161,7 +2110,7 @@
       <c r="T2" s="3"/>
       <c r="U2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:21" ht="12.75" customHeight="1">
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -2179,7 +2128,7 @@
       <c r="T3" s="3"/>
       <c r="U3" s="3"/>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:21" ht="12.75" customHeight="1">
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -2197,7 +2146,7 @@
       <c r="T4" s="3"/>
       <c r="U4" s="3"/>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:21" ht="12.75" customHeight="1">
       <c r="B5" s="6"/>
       <c r="C5" s="5" t="s">
         <v>1</v>
@@ -2219,7 +2168,7 @@
       <c r="T5" s="3"/>
       <c r="U5" s="3"/>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:21" ht="12.75" customHeight="1">
       <c r="B6" s="7"/>
       <c r="C6" s="5" t="s">
         <v>2</v>
@@ -2241,7 +2190,7 @@
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:21" ht="12.75" customHeight="1">
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -2259,7 +2208,7 @@
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
     </row>
-    <row r="8" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:21" ht="42.6" customHeight="1">
       <c r="F8" s="8" t="s">
         <v>3</v>
       </c>
@@ -2309,7 +2258,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:21" ht="42.6" customHeight="1">
       <c r="A9" s="9" t="s">
         <v>19</v>
       </c>
@@ -2372,8 +2321,8 @@
       </c>
       <c r="U9" s="11"/>
     </row>
-    <row r="10" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="12" t="n">
+    <row r="10" spans="1:21" ht="42.6" hidden="1" customHeight="1">
+      <c r="A10" s="12">
         <v>15</v>
       </c>
       <c r="B10" s="13" t="s">
@@ -2437,8 +2386,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
+    <row r="11" spans="1:21" ht="42.6" hidden="1" customHeight="1">
+      <c r="A11" s="2">
         <v>2</v>
       </c>
       <c r="B11" s="8" t="s">
@@ -2502,8 +2451,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
+    <row r="12" spans="1:21" ht="42.6" hidden="1" customHeight="1">
+      <c r="A12" s="2">
         <v>61</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -2567,18 +2516,18 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="12" t="n">
-        <v>81</v>
+    <row r="13" spans="1:21" ht="42.6" hidden="1" customHeight="1">
+      <c r="A13" s="25">
+        <v>33</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E13" s="13" t="s">
         <v>58</v>
@@ -2611,39 +2560,39 @@
         <v>38</v>
       </c>
       <c r="O13" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="P13" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q13" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="R13" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="S13" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="T13" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="U13" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="42.6" hidden="1" customHeight="1">
+      <c r="A14" s="8">
+        <v>81</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="P13" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q13" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="R13" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="S13" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="T13" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="U13" s="13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>60</v>
-      </c>
       <c r="C14" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>58</v>
@@ -2676,16 +2625,16 @@
         <v>38</v>
       </c>
       <c r="O14" s="8" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="P14" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="Q14" s="14" t="s">
-        <v>63</v>
+      <c r="Q14" s="8" t="s">
+        <v>38</v>
       </c>
       <c r="R14" s="8" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="S14" s="8" t="s">
         <v>38</v>
@@ -2697,8 +2646,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="n">
+    <row r="15" spans="1:21" ht="42.6" hidden="1" customHeight="1">
+      <c r="A15" s="2">
         <v>82</v>
       </c>
       <c r="B15" s="8" t="s">
@@ -2762,18 +2711,18 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" s="7" customFormat="true" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="n">
-        <v>51</v>
+    <row r="16" spans="1:21" s="7" customFormat="1" ht="42.6" hidden="1" customHeight="1">
+      <c r="A16" s="2">
+        <v>92</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>70</v>
@@ -2782,43 +2731,43 @@
         <v>38</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="I16" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="J16" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="K16" s="14" t="s">
-        <v>73</v>
+      <c r="J16" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>38</v>
       </c>
       <c r="L16" s="8" t="s">
         <v>38</v>
       </c>
       <c r="M16" s="8" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="N16" s="8" t="s">
         <v>38</v>
       </c>
       <c r="O16" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="P16" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q16" s="14" t="s">
-        <v>77</v>
+        <v>84</v>
+      </c>
+      <c r="P16" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q16" s="8" t="s">
+        <v>38</v>
       </c>
       <c r="R16" s="8" t="s">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S16" s="8" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="T16" s="8" t="s">
         <v>38</v>
@@ -2827,8 +2776,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="n">
+    <row r="17" spans="1:21" ht="42.6" hidden="1" customHeight="1">
+      <c r="A17" s="2">
         <v>34</v>
       </c>
       <c r="B17" s="8" t="s">
@@ -2892,18 +2841,18 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" s="4" customFormat="true" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="n">
-        <v>92</v>
+    <row r="18" spans="1:21" s="4" customFormat="1" ht="42.6" hidden="1" customHeight="1">
+      <c r="A18" s="2">
+        <v>51</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>70</v>
@@ -2912,43 +2861,43 @@
         <v>38</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="I18" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="J18" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="K18" s="8" t="s">
-        <v>38</v>
+      <c r="J18" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="K18" s="14" t="s">
+        <v>73</v>
       </c>
       <c r="L18" s="8" t="s">
         <v>38</v>
       </c>
       <c r="M18" s="8" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="N18" s="8" t="s">
         <v>38</v>
       </c>
       <c r="O18" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="P18" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q18" s="8" t="s">
-        <v>38</v>
+        <v>75</v>
+      </c>
+      <c r="P18" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q18" s="14" t="s">
+        <v>77</v>
       </c>
       <c r="R18" s="8" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S18" s="8" t="s">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="T18" s="8" t="s">
         <v>38</v>
@@ -2957,201 +2906,201 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" s="4" customFormat="true" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="16" t="n">
+    <row r="19" spans="1:21" s="4" customFormat="1" ht="42.6" hidden="1" customHeight="1">
+      <c r="A19" s="15">
+        <v>76</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="H19" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="I19" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="J19" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="K19" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="L19" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="M19" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="N19" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="O19" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="P19" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q19" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="R19" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="S19" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="T19" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="U19" s="16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" s="4" customFormat="1" ht="42.6" hidden="1" customHeight="1">
+      <c r="A20" s="16">
+        <v>72</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="H20" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="I20" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="J20" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="K20" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="L20" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="M20" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="N20" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="O20" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="P20" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q20" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="R20" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="S20" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="T20" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="U20" s="16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" ht="42.6" hidden="1" customHeight="1">
+      <c r="A21" s="16">
         <v>14</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B21" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C21" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18" t="s">
+      <c r="D21" s="16"/>
+      <c r="E21" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="F19" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="G19" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="H19" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="I19" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="J19" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="K19" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="L19" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="M19" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="N19" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="O19" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="P19" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q19" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="R19" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="S19" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="T19" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="U19" s="17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" s="4" customFormat="true" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="17" t="n">
-        <v>76</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="E20" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="F20" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="G20" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="H20" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="I20" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="J20" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="K20" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="L20" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="M20" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="N20" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="O20" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="P20" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q20" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="R20" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="S20" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="T20" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="U20" s="17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="17" t="n">
-        <v>72</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="E21" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="F21" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="G21" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="H21" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="I21" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="J21" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="K21" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="L21" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="M21" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="N21" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="O21" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="P21" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q21" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="R21" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="S21" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="T21" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="U21" s="17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" s="6" customFormat="true" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="n">
+      <c r="F21" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="H21" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="I21" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="J21" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="K21" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="L21" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="M21" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="N21" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="O21" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="P21" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q21" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="R21" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="S21" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="T21" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="U21" s="16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" s="6" customFormat="1" ht="42.6" hidden="1" customHeight="1">
+      <c r="A22" s="2">
         <v>7</v>
       </c>
       <c r="B22" s="8" t="s">
@@ -3215,18 +3164,18 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="n">
-        <v>65</v>
+    <row r="23" spans="1:21" ht="42.6" hidden="1" customHeight="1">
+      <c r="A23" s="2">
+        <v>78</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>102</v>
+        <v>136</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>105</v>
@@ -3238,10 +3187,10 @@
         <v>38</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>106</v>
+        <v>38</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>107</v>
+        <v>38</v>
       </c>
       <c r="J23" s="8" t="s">
         <v>38</v>
@@ -3249,14 +3198,14 @@
       <c r="K23" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="L23" s="8" t="s">
-        <v>38</v>
+      <c r="L23" s="14" t="s">
+        <v>139</v>
       </c>
       <c r="M23" s="8" t="s">
-        <v>38</v>
+        <v>140</v>
       </c>
       <c r="N23" s="8" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="O23" s="8" t="s">
         <v>38</v>
@@ -3268,10 +3217,10 @@
         <v>38</v>
       </c>
       <c r="R23" s="8" t="s">
-        <v>109</v>
+        <v>141</v>
       </c>
       <c r="S23" s="8" t="s">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="T23" s="8" t="s">
         <v>38</v>
@@ -3280,36 +3229,36 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="n">
-        <v>60</v>
+    <row r="24" spans="1:21" ht="42.6" hidden="1" customHeight="1">
+      <c r="A24" s="8">
+        <v>67</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>112</v>
+        <v>144</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>47</v>
+        <v>145</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>105</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>38</v>
+        <v>146</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>38</v>
+        <v>147</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>113</v>
+        <v>38</v>
       </c>
       <c r="I24" s="8" t="s">
         <v>38</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>38</v>
+        <v>145</v>
       </c>
       <c r="K24" s="8" t="s">
         <v>38</v>
@@ -3318,7 +3267,7 @@
         <v>38</v>
       </c>
       <c r="M24" s="8" t="s">
-        <v>38</v>
+        <v>148</v>
       </c>
       <c r="N24" s="8" t="s">
         <v>38</v>
@@ -3327,13 +3276,13 @@
         <v>38</v>
       </c>
       <c r="P24" s="8" t="s">
-        <v>38</v>
+        <v>149</v>
       </c>
       <c r="Q24" s="8" t="s">
         <v>38</v>
       </c>
       <c r="R24" s="8" t="s">
-        <v>114</v>
+        <v>38</v>
       </c>
       <c r="S24" s="8" t="s">
         <v>38</v>
@@ -3345,45 +3294,45 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" s="4" customFormat="true" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="n">
-        <v>57</v>
+    <row r="25" spans="1:21" s="4" customFormat="1" ht="42.6" hidden="1" customHeight="1">
+      <c r="A25" s="2">
+        <v>66</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>47</v>
+        <v>129</v>
       </c>
       <c r="E25" s="8" t="s">
         <v>105</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>38</v>
+        <v>130</v>
       </c>
       <c r="G25" s="8" t="s">
         <v>38</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>38</v>
+        <v>131</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>38</v>
+        <v>132</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="K25" s="8" t="s">
-        <v>38</v>
+        <v>129</v>
+      </c>
+      <c r="K25" s="14" t="s">
+        <v>133</v>
       </c>
       <c r="L25" s="8" t="s">
         <v>38</v>
       </c>
       <c r="M25" s="8" t="s">
-        <v>117</v>
+        <v>38</v>
       </c>
       <c r="N25" s="8" t="s">
         <v>38</v>
@@ -3398,10 +3347,10 @@
         <v>38</v>
       </c>
       <c r="R25" s="8" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="S25" s="8" t="s">
-        <v>38</v>
+        <v>135</v>
       </c>
       <c r="T25" s="8" t="s">
         <v>38</v>
@@ -3410,18 +3359,18 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="n">
-        <v>79</v>
+    <row r="26" spans="1:21" ht="42.6" hidden="1" customHeight="1">
+      <c r="A26" s="2">
+        <v>60</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>121</v>
+        <v>47</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>105</v>
@@ -3433,7 +3382,7 @@
         <v>38</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>38</v>
+        <v>113</v>
       </c>
       <c r="I26" s="8" t="s">
         <v>38</v>
@@ -3442,16 +3391,16 @@
         <v>38</v>
       </c>
       <c r="K26" s="8" t="s">
-        <v>122</v>
+        <v>38</v>
       </c>
       <c r="L26" s="8" t="s">
-        <v>123</v>
+        <v>38</v>
       </c>
       <c r="M26" s="8" t="s">
-        <v>124</v>
+        <v>38</v>
       </c>
       <c r="N26" s="8" t="s">
-        <v>121</v>
+        <v>38</v>
       </c>
       <c r="O26" s="8" t="s">
         <v>38</v>
@@ -3463,10 +3412,10 @@
         <v>38</v>
       </c>
       <c r="R26" s="8" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="S26" s="8" t="s">
-        <v>126</v>
+        <v>38</v>
       </c>
       <c r="T26" s="8" t="s">
         <v>38</v>
@@ -3475,45 +3424,45 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="n">
-        <v>66</v>
+    <row r="27" spans="1:21" ht="42.6" hidden="1" customHeight="1">
+      <c r="A27" s="2">
+        <v>57</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>129</v>
+        <v>47</v>
       </c>
       <c r="E27" s="8" t="s">
         <v>105</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>130</v>
+        <v>38</v>
       </c>
       <c r="G27" s="8" t="s">
         <v>38</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>131</v>
+        <v>38</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>132</v>
+        <v>38</v>
       </c>
       <c r="J27" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="K27" s="14" t="s">
-        <v>133</v>
+        <v>38</v>
+      </c>
+      <c r="K27" s="8" t="s">
+        <v>38</v>
       </c>
       <c r="L27" s="8" t="s">
         <v>38</v>
       </c>
       <c r="M27" s="8" t="s">
-        <v>38</v>
+        <v>117</v>
       </c>
       <c r="N27" s="8" t="s">
         <v>38</v>
@@ -3528,10 +3477,10 @@
         <v>38</v>
       </c>
       <c r="R27" s="8" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="S27" s="8" t="s">
-        <v>135</v>
+        <v>38</v>
       </c>
       <c r="T27" s="8" t="s">
         <v>38</v>
@@ -3540,18 +3489,18 @@
         <v>44</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="n">
-        <v>78</v>
+    <row r="28" spans="1:21" ht="42.6" hidden="1" customHeight="1">
+      <c r="A28" s="2">
+        <v>65</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>136</v>
+        <v>102</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>137</v>
+        <v>103</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>138</v>
+        <v>104</v>
       </c>
       <c r="E28" s="8" t="s">
         <v>105</v>
@@ -3563,10 +3512,10 @@
         <v>38</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>38</v>
+        <v>106</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>38</v>
+        <v>107</v>
       </c>
       <c r="J28" s="8" t="s">
         <v>38</v>
@@ -3574,14 +3523,14 @@
       <c r="K28" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="L28" s="14" t="s">
-        <v>139</v>
+      <c r="L28" s="8" t="s">
+        <v>38</v>
       </c>
       <c r="M28" s="8" t="s">
-        <v>140</v>
+        <v>38</v>
       </c>
       <c r="N28" s="8" t="s">
-        <v>138</v>
+        <v>108</v>
       </c>
       <c r="O28" s="8" t="s">
         <v>38</v>
@@ -3593,10 +3542,10 @@
         <v>38</v>
       </c>
       <c r="R28" s="8" t="s">
-        <v>141</v>
+        <v>109</v>
       </c>
       <c r="S28" s="8" t="s">
-        <v>142</v>
+        <v>110</v>
       </c>
       <c r="T28" s="8" t="s">
         <v>38</v>
@@ -3605,27 +3554,27 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="8" t="n">
-        <v>67</v>
+    <row r="29" spans="1:21" ht="42.6" hidden="1" customHeight="1">
+      <c r="A29" s="2">
+        <v>79</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="E29" s="8" t="s">
         <v>105</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>146</v>
+        <v>38</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>147</v>
+        <v>38</v>
       </c>
       <c r="H29" s="8" t="s">
         <v>38</v>
@@ -3634,34 +3583,34 @@
         <v>38</v>
       </c>
       <c r="J29" s="8" t="s">
-        <v>145</v>
+        <v>38</v>
       </c>
       <c r="K29" s="8" t="s">
-        <v>38</v>
+        <v>122</v>
       </c>
       <c r="L29" s="8" t="s">
-        <v>38</v>
+        <v>123</v>
       </c>
       <c r="M29" s="8" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="N29" s="8" t="s">
-        <v>38</v>
+        <v>121</v>
       </c>
       <c r="O29" s="8" t="s">
         <v>38</v>
       </c>
       <c r="P29" s="8" t="s">
-        <v>149</v>
+        <v>38</v>
       </c>
       <c r="Q29" s="8" t="s">
         <v>38</v>
       </c>
       <c r="R29" s="8" t="s">
-        <v>38</v>
+        <v>125</v>
       </c>
       <c r="S29" s="8" t="s">
-        <v>38</v>
+        <v>126</v>
       </c>
       <c r="T29" s="8" t="s">
         <v>38</v>
@@ -3670,18 +3619,18 @@
         <v>44</v>
       </c>
     </row>
-    <row r="30" s="7" customFormat="true" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="n">
-        <v>83</v>
+    <row r="30" spans="1:21" s="7" customFormat="1" ht="42.6" hidden="1" customHeight="1">
+      <c r="A30" s="2">
+        <v>47</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="E30" s="8" t="s">
         <v>153</v>
@@ -3690,43 +3639,43 @@
         <v>38</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>38</v>
+        <v>167</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>154</v>
+        <v>38</v>
       </c>
       <c r="I30" s="8" t="s">
         <v>38</v>
       </c>
       <c r="J30" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="K30" s="8" t="s">
-        <v>38</v>
+        <v>166</v>
+      </c>
+      <c r="K30" s="14" t="s">
+        <v>168</v>
       </c>
       <c r="L30" s="8" t="s">
         <v>38</v>
       </c>
       <c r="M30" s="8" t="s">
-        <v>38</v>
+        <v>169</v>
       </c>
       <c r="N30" s="8" t="s">
-        <v>152</v>
+        <v>38</v>
       </c>
       <c r="O30" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="P30" s="8" t="s">
-        <v>38</v>
+      <c r="P30" s="14" t="s">
+        <v>170</v>
       </c>
       <c r="Q30" s="8" t="s">
-        <v>38</v>
+        <v>171</v>
       </c>
       <c r="R30" s="8" t="s">
-        <v>155</v>
+        <v>38</v>
       </c>
       <c r="S30" s="8" t="s">
-        <v>156</v>
+        <v>38</v>
       </c>
       <c r="T30" s="8" t="s">
         <v>38</v>
@@ -3735,18 +3684,18 @@
         <v>44</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="n">
-        <v>80</v>
+    <row r="31" spans="1:21" ht="42.6" hidden="1" customHeight="1">
+      <c r="A31" s="2">
+        <v>48</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="E31" s="8" t="s">
         <v>153</v>
@@ -3755,7 +3704,7 @@
         <v>38</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>38</v>
+        <v>175</v>
       </c>
       <c r="H31" s="8" t="s">
         <v>38</v>
@@ -3764,34 +3713,34 @@
         <v>38</v>
       </c>
       <c r="J31" s="8" t="s">
-        <v>38</v>
+        <v>174</v>
       </c>
       <c r="K31" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="L31" s="14" t="s">
-        <v>160</v>
+      <c r="L31" s="8" t="s">
+        <v>38</v>
       </c>
       <c r="M31" s="8" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="N31" s="8" t="s">
-        <v>159</v>
+        <v>38</v>
       </c>
       <c r="O31" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="P31" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q31" s="8" t="s">
-        <v>38</v>
+      <c r="P31" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q31" s="14" t="s">
+        <v>178</v>
       </c>
       <c r="R31" s="8" t="s">
-        <v>162</v>
+        <v>38</v>
       </c>
       <c r="S31" s="8" t="s">
-        <v>163</v>
+        <v>38</v>
       </c>
       <c r="T31" s="8" t="s">
         <v>38</v>
@@ -3800,18 +3749,18 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2" t="n">
-        <v>47</v>
+    <row r="32" spans="1:21" ht="42.6" hidden="1" customHeight="1">
+      <c r="A32" s="2">
+        <v>83</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="E32" s="8" t="s">
         <v>153</v>
@@ -3820,43 +3769,43 @@
         <v>38</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>167</v>
+        <v>38</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>38</v>
+        <v>154</v>
       </c>
       <c r="I32" s="8" t="s">
         <v>38</v>
       </c>
       <c r="J32" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="K32" s="14" t="s">
-        <v>168</v>
+        <v>38</v>
+      </c>
+      <c r="K32" s="8" t="s">
+        <v>38</v>
       </c>
       <c r="L32" s="8" t="s">
         <v>38</v>
       </c>
       <c r="M32" s="8" t="s">
-        <v>169</v>
+        <v>38</v>
       </c>
       <c r="N32" s="8" t="s">
-        <v>38</v>
+        <v>152</v>
       </c>
       <c r="O32" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="P32" s="14" t="s">
-        <v>170</v>
+      <c r="P32" s="8" t="s">
+        <v>38</v>
       </c>
       <c r="Q32" s="8" t="s">
-        <v>171</v>
+        <v>38</v>
       </c>
       <c r="R32" s="8" t="s">
-        <v>38</v>
+        <v>155</v>
       </c>
       <c r="S32" s="8" t="s">
-        <v>38</v>
+        <v>156</v>
       </c>
       <c r="T32" s="8" t="s">
         <v>38</v>
@@ -3865,18 +3814,18 @@
         <v>44</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2" t="n">
-        <v>48</v>
+    <row r="33" spans="1:21" ht="42.6" hidden="1" customHeight="1">
+      <c r="A33" s="2">
+        <v>80</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="E33" s="8" t="s">
         <v>153</v>
@@ -3885,7 +3834,7 @@
         <v>38</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>175</v>
+        <v>38</v>
       </c>
       <c r="H33" s="8" t="s">
         <v>38</v>
@@ -3894,34 +3843,34 @@
         <v>38</v>
       </c>
       <c r="J33" s="8" t="s">
-        <v>174</v>
+        <v>38</v>
       </c>
       <c r="K33" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="L33" s="8" t="s">
-        <v>38</v>
+      <c r="L33" s="14" t="s">
+        <v>160</v>
       </c>
       <c r="M33" s="8" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="N33" s="8" t="s">
-        <v>38</v>
+        <v>159</v>
       </c>
       <c r="O33" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="P33" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q33" s="14" t="s">
-        <v>178</v>
+      <c r="P33" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q33" s="8" t="s">
+        <v>38</v>
       </c>
       <c r="R33" s="8" t="s">
-        <v>38</v>
+        <v>162</v>
       </c>
       <c r="S33" s="8" t="s">
-        <v>38</v>
+        <v>163</v>
       </c>
       <c r="T33" s="8" t="s">
         <v>38</v>
@@ -3930,8 +3879,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2" t="n">
+    <row r="34" spans="1:21" ht="42.6" hidden="1" customHeight="1">
+      <c r="A34" s="2">
         <v>95</v>
       </c>
       <c r="B34" s="8" t="s">
@@ -3995,8 +3944,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2" t="n">
+    <row r="35" spans="1:21" ht="42.6" hidden="1" customHeight="1">
+      <c r="A35" s="2">
         <v>96</v>
       </c>
       <c r="B35" s="8" t="s">
@@ -4060,8 +4009,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2" t="n">
+    <row r="36" spans="1:21" ht="42.6" customHeight="1">
+      <c r="A36" s="2">
         <v>4</v>
       </c>
       <c r="B36" s="8" t="s">
@@ -4125,8 +4074,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="8" t="n">
+    <row r="37" spans="1:21" ht="42.6" customHeight="1">
+      <c r="A37" s="8">
         <v>31</v>
       </c>
       <c r="B37" s="8" t="s">
@@ -4190,8 +4139,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="38" s="4" customFormat="true" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="8" t="n">
+    <row r="38" spans="1:21" s="4" customFormat="1" ht="42.6" customHeight="1">
+      <c r="A38" s="8">
         <v>32</v>
       </c>
       <c r="B38" s="8" t="s">
@@ -4255,8 +4204,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="8" t="n">
+    <row r="39" spans="1:21" ht="42.6" customHeight="1">
+      <c r="A39" s="8">
         <v>30</v>
       </c>
       <c r="B39" s="8" t="s">
@@ -4320,8 +4269,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="40" s="7" customFormat="true" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="2" t="n">
+    <row r="40" spans="1:21" s="7" customFormat="1" ht="42.6" hidden="1" customHeight="1">
+      <c r="A40" s="2">
         <v>1</v>
       </c>
       <c r="B40" s="8" t="s">
@@ -4385,8 +4334,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="41" s="7" customFormat="true" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="2" t="n">
+    <row r="41" spans="1:21" s="7" customFormat="1" ht="42.6" hidden="1" customHeight="1">
+      <c r="A41" s="2">
         <v>98</v>
       </c>
       <c r="B41" s="8" t="s">
@@ -4450,8 +4399,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="42" s="7" customFormat="true" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="12" t="n">
+    <row r="42" spans="1:21" s="7" customFormat="1" ht="42.6" hidden="1" customHeight="1">
+      <c r="A42" s="12">
         <v>97</v>
       </c>
       <c r="B42" s="8" t="s">
@@ -4515,8 +4464,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="2" t="n">
+    <row r="43" spans="1:21" ht="42.6" hidden="1" customHeight="1">
+      <c r="A43" s="2">
         <v>3</v>
       </c>
       <c r="B43" s="8" t="s">
@@ -4580,8 +4529,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" s="7" customFormat="true" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="2" t="n">
+    <row r="44" spans="1:21" s="7" customFormat="1" ht="42.6" hidden="1" customHeight="1">
+      <c r="A44" s="2">
         <v>90</v>
       </c>
       <c r="B44" s="8" t="s">
@@ -4645,8 +4594,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="2" t="n">
+    <row r="45" spans="1:21" ht="42.6" hidden="1" customHeight="1">
+      <c r="A45" s="2">
         <v>91</v>
       </c>
       <c r="B45" s="8" t="s">
@@ -4710,8 +4659,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" s="6" customFormat="true" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="2" t="n">
+    <row r="46" spans="1:21" s="6" customFormat="1" ht="42.6" hidden="1" customHeight="1">
+      <c r="A46" s="2">
         <v>89</v>
       </c>
       <c r="B46" s="8" t="s">
@@ -4775,8 +4724,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="47" s="7" customFormat="true" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="2" t="n">
+    <row r="47" spans="1:21" s="7" customFormat="1" ht="42.6" hidden="1" customHeight="1">
+      <c r="A47" s="2">
         <v>38</v>
       </c>
       <c r="B47" s="8" t="s">
@@ -4840,8 +4789,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="2" t="n">
+    <row r="48" spans="1:21" ht="42.6" hidden="1" customHeight="1">
+      <c r="A48" s="2">
         <v>5</v>
       </c>
       <c r="B48" s="8" t="s">
@@ -4905,8 +4854,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="2" t="n">
+    <row r="49" spans="1:21" ht="42.6" hidden="1" customHeight="1">
+      <c r="A49" s="2">
         <v>9</v>
       </c>
       <c r="B49" s="8" t="s">
@@ -4970,8 +4919,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="50" s="4" customFormat="true" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="2" t="n">
+    <row r="50" spans="1:21" s="4" customFormat="1" ht="42.6" hidden="1" customHeight="1">
+      <c r="A50" s="2">
         <v>88</v>
       </c>
       <c r="B50" s="8" t="s">
@@ -5035,8 +4984,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="2" t="n">
+    <row r="51" spans="1:21" ht="42.6" hidden="1" customHeight="1">
+      <c r="A51" s="2">
         <v>53</v>
       </c>
       <c r="B51" s="8" t="s">
@@ -5100,8 +5049,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="2" t="n">
+    <row r="52" spans="1:21" ht="42.6" hidden="1" customHeight="1">
+      <c r="A52" s="2">
         <v>54</v>
       </c>
       <c r="B52" s="8" t="s">
@@ -5165,8 +5114,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="2" t="n">
+    <row r="53" spans="1:21" ht="42.6" hidden="1" customHeight="1">
+      <c r="A53" s="2">
         <v>52</v>
       </c>
       <c r="B53" s="8" t="s">
@@ -5230,8 +5179,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="2" t="n">
+    <row r="54" spans="1:21" ht="42.6" hidden="1" customHeight="1">
+      <c r="A54" s="2">
         <v>17</v>
       </c>
       <c r="B54" s="8" t="s">
@@ -5295,8 +5244,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="2" t="n">
+    <row r="55" spans="1:21" ht="42.6" hidden="1" customHeight="1">
+      <c r="A55" s="2">
         <v>18</v>
       </c>
       <c r="B55" s="8" t="s">
@@ -5360,203 +5309,203 @@
         <v>44</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="8" t="n">
+    <row r="56" spans="1:21" ht="42.6" hidden="1" customHeight="1">
+      <c r="A56" s="19">
+        <v>16</v>
+      </c>
+      <c r="B56" s="19" t="s">
+        <v>333</v>
+      </c>
+      <c r="C56" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="D56" s="19" t="s">
+        <v>335</v>
+      </c>
+      <c r="E56" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="F56" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G56" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="H56" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="I56" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J56" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="K56" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="L56" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="M56" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="N56" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O56" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="P56" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q56" s="20" t="s">
+        <v>336</v>
+      </c>
+      <c r="R56" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="S56" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="T56" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="U56" s="19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" ht="42.6" hidden="1" customHeight="1">
+      <c r="A57" s="19">
+        <v>45</v>
+      </c>
+      <c r="B57" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="C57" s="19" t="s">
+        <v>330</v>
+      </c>
+      <c r="D57" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="E57" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="F57" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G57" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="H57" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="I57" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J57" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="K57" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="L57" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="M57" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="N57" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O57" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="P57" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q57" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="R57" s="19" t="s">
+        <v>332</v>
+      </c>
+      <c r="S57" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="T57" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="U57" s="19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" ht="42.6" hidden="1" customHeight="1">
+      <c r="A58" s="8">
         <v>69</v>
       </c>
-      <c r="B56" s="8" t="s">
+      <c r="B58" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="C56" s="8" t="s">
+      <c r="C58" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="D56" s="8" t="s">
+      <c r="D58" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="E56" s="8" t="s">
+      <c r="E58" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="F56" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G56" s="8" t="s">
+      <c r="F58" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G58" s="8" t="s">
         <v>326</v>
       </c>
-      <c r="H56" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="I56" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="J56" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="K56" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="L56" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="M56" s="8" t="s">
+      <c r="H58" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I58" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="J58" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K58" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="L58" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M58" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="N56" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="O56" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="P56" s="8" t="s">
+      <c r="N58" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="O58" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="P58" s="8" t="s">
         <v>327</v>
       </c>
-      <c r="Q56" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="R56" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="S56" s="8" t="s">
+      <c r="Q58" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="R58" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="S58" s="8" t="s">
         <v>328</v>
       </c>
-      <c r="T56" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="U56" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="20" t="n">
-        <v>45</v>
-      </c>
-      <c r="B57" s="20" t="s">
-        <v>329</v>
-      </c>
-      <c r="C57" s="20" t="s">
-        <v>330</v>
-      </c>
-      <c r="D57" s="20" t="s">
-        <v>331</v>
-      </c>
-      <c r="E57" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="F57" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G57" s="20" t="s">
-        <v>331</v>
-      </c>
-      <c r="H57" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="I57" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="J57" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="K57" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="L57" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="M57" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="N57" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="O57" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="P57" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q57" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="R57" s="20" t="s">
-        <v>332</v>
-      </c>
-      <c r="S57" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="T57" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="U57" s="20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="20" t="n">
-        <v>16</v>
-      </c>
-      <c r="B58" s="20" t="s">
-        <v>333</v>
-      </c>
-      <c r="C58" s="20" t="s">
-        <v>334</v>
-      </c>
-      <c r="D58" s="20" t="s">
-        <v>335</v>
-      </c>
-      <c r="E58" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="F58" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G58" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="H58" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="I58" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="J58" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="K58" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="L58" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="M58" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="N58" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="O58" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="P58" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q58" s="21" t="s">
-        <v>336</v>
-      </c>
-      <c r="R58" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="S58" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="T58" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="U58" s="20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="8" t="n">
+      <c r="T58" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="U58" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" ht="42.6" hidden="1" customHeight="1">
+      <c r="A59" s="8">
         <v>68</v>
       </c>
       <c r="B59" s="8" t="s">
@@ -5618,8 +5567,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="12" t="n">
+    <row r="60" spans="1:21" ht="42.6" hidden="1" customHeight="1">
+      <c r="A60" s="12">
         <v>35</v>
       </c>
       <c r="B60" s="13" t="s">
@@ -5637,7 +5586,7 @@
       <c r="F60" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="G60" s="22" t="s">
+      <c r="G60" s="21" t="s">
         <v>291</v>
       </c>
       <c r="H60" s="13" t="s">
@@ -5683,8 +5632,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="2" t="n">
+    <row r="61" spans="1:21" ht="42.6" hidden="1" customHeight="1">
+      <c r="A61" s="2">
         <v>36</v>
       </c>
       <c r="B61" s="8" t="s">
@@ -5748,8 +5697,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="2" t="n">
+    <row r="62" spans="1:21" ht="42.6" hidden="1" customHeight="1">
+      <c r="A62" s="2">
         <v>42</v>
       </c>
       <c r="B62" s="8" t="s">
@@ -5813,12 +5762,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="2" t="n">
+    <row r="63" spans="1:21" ht="42.6" hidden="1" customHeight="1">
+      <c r="A63" s="2">
         <v>44</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>356</v>
+        <v>486</v>
       </c>
       <c r="C63" s="8" t="s">
         <v>360</v>
@@ -5878,8 +5827,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="2" t="n">
+    <row r="64" spans="1:21" ht="42.6" hidden="1" customHeight="1">
+      <c r="A64" s="2">
         <v>93</v>
       </c>
       <c r="B64" s="8" t="s">
@@ -5915,7 +5864,7 @@
       <c r="L64" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="M64" s="23" t="s">
+      <c r="M64" s="22" t="s">
         <v>365</v>
       </c>
       <c r="N64" s="8" t="s">
@@ -5943,8 +5892,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="2" t="n">
+    <row r="65" spans="1:21" ht="42.6" hidden="1" customHeight="1">
+      <c r="A65" s="2">
         <v>63</v>
       </c>
       <c r="B65" s="8" t="s">
@@ -6008,18 +5957,18 @@
         <v>44</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="2" t="n">
-        <v>62</v>
+    <row r="66" spans="1:21" ht="42.6" hidden="1" customHeight="1">
+      <c r="A66" s="2">
+        <v>64</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>374</v>
+        <v>487</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>375</v>
+        <v>402</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>376</v>
+        <v>216</v>
       </c>
       <c r="E66" s="8" t="s">
         <v>346</v>
@@ -6031,60 +5980,60 @@
         <v>38</v>
       </c>
       <c r="H66" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="I66" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="J66" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K66" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="L66" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="M66" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="N66" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="O66" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="P66" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q66" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="R66" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="S66" s="14" t="s">
+        <v>407</v>
+      </c>
+      <c r="T66" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="U66" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" ht="42.6" hidden="1" customHeight="1">
+      <c r="A67" s="25">
+        <v>62</v>
+      </c>
+      <c r="B67" s="13" t="s">
+        <v>374</v>
+      </c>
+      <c r="C67" s="13" t="s">
+        <v>375</v>
+      </c>
+      <c r="D67" s="13" t="s">
         <v>376</v>
-      </c>
-      <c r="I66" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="J66" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="K66" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="L66" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="M66" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="N66" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="O66" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="P66" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q66" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="R66" s="8" t="s">
-        <v>377</v>
-      </c>
-      <c r="S66" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="T66" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="U66" s="13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="12" t="n">
-        <v>23</v>
-      </c>
-      <c r="B67" s="13" t="s">
-        <v>378</v>
-      </c>
-      <c r="C67" s="13" t="s">
-        <v>379</v>
-      </c>
-      <c r="D67" s="13" t="s">
-        <v>380</v>
       </c>
       <c r="E67" s="13" t="s">
         <v>346</v>
@@ -6092,64 +6041,64 @@
       <c r="F67" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="G67" s="22" t="s">
-        <v>222</v>
+      <c r="G67" s="13" t="s">
+        <v>38</v>
       </c>
       <c r="H67" s="13" t="s">
+        <v>376</v>
+      </c>
+      <c r="I67" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="J67" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K67" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="L67" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M67" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="N67" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="O67" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="P67" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q67" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="R67" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="S67" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="T67" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="U67" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" ht="42.6" hidden="1" customHeight="1">
+      <c r="A68" s="8">
+        <v>23</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="D68" s="8" t="s">
         <v>380</v>
-      </c>
-      <c r="I67" s="13" t="s">
-        <v>381</v>
-      </c>
-      <c r="J67" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="K67" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="L67" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="M67" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="N67" s="13" t="s">
-        <v>382</v>
-      </c>
-      <c r="O67" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="P67" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q67" s="13" t="s">
-        <v>383</v>
-      </c>
-      <c r="R67" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="S67" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="T67" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="U67" s="13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="8" t="n">
-        <v>24</v>
-      </c>
-      <c r="B68" s="8" t="s">
-        <v>384</v>
-      </c>
-      <c r="C68" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="D68" s="8" t="s">
-        <v>386</v>
       </c>
       <c r="E68" s="8" t="s">
         <v>346</v>
@@ -6157,64 +6106,64 @@
       <c r="F68" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="G68" s="8" t="s">
-        <v>387</v>
+      <c r="G68" s="14" t="s">
+        <v>222</v>
       </c>
       <c r="H68" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="I68" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="J68" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K68" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="L68" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M68" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="N68" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="O68" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="P68" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q68" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="R68" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="S68" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="T68" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="U68" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" ht="42.6" hidden="1" customHeight="1">
+      <c r="A69" s="8">
+        <v>24</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="D69" s="8" t="s">
         <v>386</v>
-      </c>
-      <c r="I68" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="J68" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="K68" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="L68" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="M68" s="8" t="s">
-        <v>388</v>
-      </c>
-      <c r="N68" s="8" t="s">
-        <v>389</v>
-      </c>
-      <c r="O68" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="P68" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q68" s="14" t="s">
-        <v>390</v>
-      </c>
-      <c r="R68" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="S68" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="T68" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="U68" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="B69" s="8" t="s">
-        <v>391</v>
-      </c>
-      <c r="C69" s="8" t="s">
-        <v>392</v>
-      </c>
-      <c r="D69" s="8" t="s">
-        <v>393</v>
       </c>
       <c r="E69" s="8" t="s">
         <v>346</v>
@@ -6223,63 +6172,63 @@
         <v>38</v>
       </c>
       <c r="G69" s="8" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="H69" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="I69" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="J69" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K69" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="L69" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M69" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="N69" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="O69" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="P69" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q69" s="14" t="s">
+        <v>390</v>
+      </c>
+      <c r="R69" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="S69" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="T69" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="U69" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" s="4" customFormat="1" ht="42.6" hidden="1" customHeight="1">
+      <c r="A70" s="8">
+        <v>25</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="D70" s="8" t="s">
         <v>393</v>
-      </c>
-      <c r="I69" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="J69" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="K69" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="L69" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="M69" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="N69" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="O69" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="P69" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q69" s="8" t="s">
-        <v>395</v>
-      </c>
-      <c r="R69" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="S69" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="T69" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="U69" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="70" s="4" customFormat="true" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="8" t="n">
-        <v>26</v>
-      </c>
-      <c r="B70" s="8" t="s">
-        <v>396</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>397</v>
-      </c>
-      <c r="D70" s="8" t="s">
-        <v>398</v>
       </c>
       <c r="E70" s="8" t="s">
         <v>346</v>
@@ -6288,63 +6237,63 @@
         <v>38</v>
       </c>
       <c r="G70" s="8" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="H70" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="I70" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="J70" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K70" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="L70" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M70" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="N70" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="O70" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="P70" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q70" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="R70" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="S70" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="T70" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="U70" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" s="4" customFormat="1" ht="42.6" hidden="1" customHeight="1">
+      <c r="A71" s="8">
+        <v>26</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="D71" s="8" t="s">
         <v>398</v>
-      </c>
-      <c r="I70" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="J70" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="K70" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="L70" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="M70" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="N70" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="O70" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="P70" s="8" t="s">
-        <v>400</v>
-      </c>
-      <c r="Q70" s="8" t="s">
-        <v>401</v>
-      </c>
-      <c r="R70" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="S70" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="T70" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="U70" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="71" s="4" customFormat="true" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="2" t="n">
-        <v>64</v>
-      </c>
-      <c r="B71" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="C71" s="8" t="s">
-        <v>402</v>
-      </c>
-      <c r="D71" s="8" t="s">
-        <v>216</v>
       </c>
       <c r="E71" s="8" t="s">
         <v>346</v>
@@ -6353,13 +6302,13 @@
         <v>38</v>
       </c>
       <c r="G71" s="8" t="s">
-        <v>38</v>
+        <v>399</v>
       </c>
       <c r="H71" s="8" t="s">
-        <v>216</v>
+        <v>398</v>
       </c>
       <c r="I71" s="8" t="s">
-        <v>403</v>
+        <v>277</v>
       </c>
       <c r="J71" s="8" t="s">
         <v>38</v>
@@ -6368,28 +6317,28 @@
         <v>38</v>
       </c>
       <c r="L71" s="8" t="s">
-        <v>404</v>
+        <v>38</v>
       </c>
       <c r="M71" s="8" t="s">
-        <v>38</v>
+        <v>278</v>
       </c>
       <c r="N71" s="8" t="s">
-        <v>405</v>
+        <v>38</v>
       </c>
       <c r="O71" s="8" t="s">
         <v>38</v>
       </c>
       <c r="P71" s="8" t="s">
-        <v>38</v>
+        <v>400</v>
       </c>
       <c r="Q71" s="8" t="s">
-        <v>38</v>
+        <v>401</v>
       </c>
       <c r="R71" s="8" t="s">
-        <v>406</v>
-      </c>
-      <c r="S71" s="14" t="s">
-        <v>407</v>
+        <v>38</v>
+      </c>
+      <c r="S71" s="8" t="s">
+        <v>38</v>
       </c>
       <c r="T71" s="8" t="s">
         <v>38</v>
@@ -6398,8 +6347,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="72" s="4" customFormat="true" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="2" t="n">
+    <row r="72" spans="1:21" s="4" customFormat="1" ht="42.6" hidden="1" customHeight="1">
+      <c r="A72" s="2">
         <v>84</v>
       </c>
       <c r="B72" s="8" t="s">
@@ -6463,8 +6412,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="73" s="4" customFormat="true" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="2" t="n">
+    <row r="73" spans="1:21" s="4" customFormat="1" ht="42.6" hidden="1" customHeight="1">
+      <c r="A73" s="2">
         <v>85</v>
       </c>
       <c r="B73" s="8" t="s">
@@ -6528,8 +6477,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="74" s="4" customFormat="true" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="2" t="n">
+    <row r="74" spans="1:21" s="4" customFormat="1" ht="42.6" hidden="1" customHeight="1">
+      <c r="A74" s="2">
         <v>87</v>
       </c>
       <c r="B74" s="8" t="s">
@@ -6593,8 +6542,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="75" s="7" customFormat="true" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A75" s="2" t="n">
+    <row r="75" spans="1:21" s="7" customFormat="1" ht="42.6" hidden="1" customHeight="1">
+      <c r="A75" s="2">
         <v>86</v>
       </c>
       <c r="B75" s="8" t="s">
@@ -6658,8 +6607,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="2" t="n">
+    <row r="76" spans="1:21" ht="42.6" hidden="1" customHeight="1">
+      <c r="A76" s="2">
         <v>58</v>
       </c>
       <c r="B76" s="8" t="s">
@@ -6723,8 +6672,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A77" s="2" t="n">
+    <row r="77" spans="1:21" ht="42.6" hidden="1" customHeight="1">
+      <c r="A77" s="2">
         <v>59</v>
       </c>
       <c r="B77" s="8" t="s">
@@ -6788,8 +6737,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A78" s="2" t="n">
+    <row r="78" spans="1:21" ht="42.6" hidden="1" customHeight="1">
+      <c r="A78" s="2">
         <v>56</v>
       </c>
       <c r="B78" s="8" t="s">
@@ -6853,8 +6802,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A79" s="2" t="n">
+    <row r="79" spans="1:21" ht="42.6" hidden="1" customHeight="1">
+      <c r="A79" s="2">
         <v>55</v>
       </c>
       <c r="B79" s="8" t="s">
@@ -6918,1072 +6867,1065 @@
         <v>44</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="17" t="n">
+    <row r="80" spans="1:21" ht="42.6" hidden="1" customHeight="1">
+      <c r="A80" s="16">
         <v>70</v>
       </c>
-      <c r="B80" s="17" t="s">
+      <c r="B80" s="16" t="s">
         <v>437</v>
       </c>
-      <c r="C80" s="17" t="s">
+      <c r="C80" s="16" t="s">
         <v>438</v>
       </c>
-      <c r="D80" s="17" t="s">
+      <c r="D80" s="16" t="s">
         <v>439</v>
       </c>
-      <c r="E80" s="17" t="s">
+      <c r="E80" s="16" t="s">
         <v>440</v>
       </c>
-      <c r="F80" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="G80" s="17" t="s">
+      <c r="F80" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G80" s="16" t="s">
         <v>331</v>
       </c>
-      <c r="H80" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="I80" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="J80" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="K80" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="L80" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="M80" s="17" t="s">
+      <c r="H80" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="I80" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="J80" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="K80" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="L80" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="M80" s="16" t="s">
         <v>441</v>
       </c>
-      <c r="N80" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="O80" s="17" t="s">
+      <c r="N80" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="O80" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="P80" s="17" t="s">
+      <c r="P80" s="16" t="s">
         <v>439</v>
       </c>
-      <c r="Q80" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="R80" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="S80" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="T80" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="U80" s="17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A81" s="17" t="n">
+      <c r="Q80" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="R80" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="S80" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="T80" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="U80" s="16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21" ht="42.6" hidden="1" customHeight="1">
+      <c r="A81" s="16">
         <v>71</v>
       </c>
-      <c r="B81" s="17" t="s">
+      <c r="B81" s="16" t="s">
         <v>442</v>
       </c>
-      <c r="C81" s="17" t="s">
+      <c r="C81" s="16" t="s">
         <v>443</v>
       </c>
-      <c r="D81" s="17" t="s">
+      <c r="D81" s="16" t="s">
         <v>444</v>
       </c>
-      <c r="E81" s="17" t="s">
+      <c r="E81" s="16" t="s">
         <v>440</v>
       </c>
-      <c r="F81" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="G81" s="17" t="s">
+      <c r="F81" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G81" s="16" t="s">
         <v>445</v>
       </c>
-      <c r="H81" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="I81" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="J81" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="K81" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="L81" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="M81" s="17" t="s">
+      <c r="H81" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="I81" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="J81" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="K81" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="L81" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="M81" s="16" t="s">
         <v>446</v>
       </c>
-      <c r="N81" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="O81" s="17" t="s">
+      <c r="N81" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="O81" s="16" t="s">
         <v>447</v>
       </c>
-      <c r="P81" s="17" t="s">
+      <c r="P81" s="16" t="s">
         <v>444</v>
       </c>
-      <c r="Q81" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="R81" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="S81" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="T81" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="U81" s="17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A82" s="17" t="n">
+      <c r="Q81" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="R81" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="S81" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="T81" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="U81" s="16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21" ht="42.6" hidden="1" customHeight="1">
+      <c r="A82" s="16">
         <v>21</v>
       </c>
-      <c r="B82" s="17" t="s">
+      <c r="B82" s="16" t="s">
         <v>448</v>
       </c>
-      <c r="C82" s="17" t="s">
+      <c r="C82" s="16" t="s">
         <v>449</v>
       </c>
-      <c r="D82" s="17"/>
-      <c r="E82" s="17"/>
-      <c r="F82" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="G82" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="H82" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="I82" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="J82" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="K82" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="L82" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="M82" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="N82" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="O82" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="P82" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q82" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="R82" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="S82" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="T82" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="U82" s="17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A83" s="17" t="n">
+      <c r="D82" s="16"/>
+      <c r="E82" s="16"/>
+      <c r="F82" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G82" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="H82" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="I82" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="J82" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="K82" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="L82" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="M82" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="N82" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="O82" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="P82" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q82" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="R82" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="S82" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="T82" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="U82" s="16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21" ht="42.6" hidden="1" customHeight="1">
+      <c r="A83" s="16">
         <v>37</v>
       </c>
-      <c r="B83" s="17" t="s">
+      <c r="B83" s="16" t="s">
         <v>450</v>
       </c>
-      <c r="C83" s="17" t="s">
+      <c r="C83" s="16" t="s">
         <v>451</v>
       </c>
-      <c r="D83" s="17"/>
-      <c r="E83" s="17"/>
-      <c r="F83" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="G83" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="H83" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="I83" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="J83" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="K83" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="L83" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="M83" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="N83" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="O83" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="P83" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q83" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="R83" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="S83" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="T83" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="U83" s="17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A84" s="17" t="n">
+      <c r="D83" s="16"/>
+      <c r="E83" s="16"/>
+      <c r="F83" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G83" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="H83" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="I83" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="J83" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="K83" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="L83" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="M83" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="N83" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="O83" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="P83" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q83" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="R83" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="S83" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="T83" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="U83" s="16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21" ht="42.6" hidden="1" customHeight="1">
+      <c r="A84" s="16">
         <v>94</v>
       </c>
-      <c r="B84" s="17" t="s">
+      <c r="B84" s="16" t="s">
         <v>452</v>
       </c>
-      <c r="C84" s="17" t="s">
+      <c r="C84" s="16" t="s">
         <v>452</v>
       </c>
-      <c r="D84" s="17"/>
-      <c r="E84" s="17"/>
-      <c r="F84" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="G84" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="H84" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="I84" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="J84" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="K84" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="L84" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="M84" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="N84" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="O84" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="P84" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q84" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="R84" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="S84" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="T84" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="U84" s="17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A85" s="24" t="n">
+      <c r="D84" s="16"/>
+      <c r="E84" s="16"/>
+      <c r="F84" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G84" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="H84" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="I84" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="J84" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="K84" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="L84" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="M84" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="N84" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="O84" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="P84" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q84" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="R84" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="S84" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="T84" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="U84" s="16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21" ht="42.6" hidden="1" customHeight="1">
+      <c r="A85" s="23">
         <v>77</v>
       </c>
-      <c r="B85" s="24" t="s">
+      <c r="B85" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C85" s="24" t="s">
+      <c r="C85" s="23" t="s">
         <v>453</v>
       </c>
-      <c r="D85" s="24"/>
-      <c r="E85" s="24"/>
-      <c r="F85" s="24" t="s">
+      <c r="D85" s="23"/>
+      <c r="E85" s="23"/>
+      <c r="F85" s="23" t="s">
         <v>454</v>
       </c>
-      <c r="G85" s="25" t="s">
+      <c r="G85" s="24" t="s">
         <v>455</v>
       </c>
-      <c r="H85" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="I85" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="J85" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="K85" s="24" t="s">
+      <c r="H85" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="I85" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="J85" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="K85" s="23" t="s">
         <v>456</v>
       </c>
-      <c r="L85" s="25" t="s">
+      <c r="L85" s="24" t="s">
         <v>457</v>
       </c>
-      <c r="M85" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="N85" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="O85" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="P85" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q85" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="R85" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="S85" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="T85" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="U85" s="24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A86" s="24" t="n">
+      <c r="M85" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="N85" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="O85" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="P85" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q85" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="R85" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="S85" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="T85" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="U85" s="23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21" ht="42.6" hidden="1" customHeight="1">
+      <c r="A86" s="23">
         <v>29</v>
       </c>
-      <c r="B86" s="24" t="s">
+      <c r="B86" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C86" s="24" t="s">
+      <c r="C86" s="23" t="s">
         <v>458</v>
       </c>
-      <c r="D86" s="24"/>
-      <c r="E86" s="24"/>
-      <c r="F86" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G86" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="H86" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="I86" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="J86" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="K86" s="24" t="s">
+      <c r="D86" s="23"/>
+      <c r="E86" s="23"/>
+      <c r="F86" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G86" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H86" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="I86" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="J86" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="K86" s="23" t="s">
         <v>456</v>
       </c>
-      <c r="L86" s="24" t="s">
+      <c r="L86" s="23" t="s">
         <v>459</v>
       </c>
-      <c r="M86" s="24" t="s">
+      <c r="M86" s="23" t="s">
         <v>460</v>
       </c>
-      <c r="N86" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="O86" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="P86" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q86" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="R86" s="24" t="s">
+      <c r="N86" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="O86" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="P86" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q86" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="R86" s="23" t="s">
         <v>461</v>
       </c>
-      <c r="S86" s="24" t="s">
+      <c r="S86" s="23" t="s">
         <v>462</v>
       </c>
-      <c r="T86" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="U86" s="24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A87" s="24" t="n">
+      <c r="T86" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="U86" s="23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21" ht="42.6" hidden="1" customHeight="1">
+      <c r="A87" s="23">
         <v>8</v>
       </c>
-      <c r="B87" s="24" t="s">
+      <c r="B87" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C87" s="24" t="s">
+      <c r="C87" s="23" t="s">
         <v>463</v>
       </c>
-      <c r="D87" s="24"/>
-      <c r="E87" s="24"/>
-      <c r="F87" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G87" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="H87" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="I87" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="J87" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="K87" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="L87" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="M87" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="N87" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="O87" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="P87" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q87" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="R87" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="S87" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="T87" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="U87" s="24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A88" s="24" t="n">
+      <c r="D87" s="23"/>
+      <c r="E87" s="23"/>
+      <c r="F87" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G87" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H87" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="I87" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="J87" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="K87" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="L87" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="M87" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="N87" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="O87" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="P87" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q87" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="R87" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="S87" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="T87" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="U87" s="23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21" ht="42.6" hidden="1" customHeight="1">
+      <c r="A88" s="23">
         <v>41</v>
       </c>
-      <c r="B88" s="24" t="s">
+      <c r="B88" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C88" s="24" t="s">
+      <c r="C88" s="23" t="s">
         <v>464</v>
       </c>
-      <c r="D88" s="24"/>
-      <c r="E88" s="24"/>
-      <c r="F88" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G88" s="24" t="s">
+      <c r="D88" s="23"/>
+      <c r="E88" s="23"/>
+      <c r="F88" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G88" s="23" t="s">
         <v>465</v>
       </c>
-      <c r="H88" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="I88" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="J88" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="K88" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="L88" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="M88" s="24" t="s">
+      <c r="H88" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="I88" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="J88" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="K88" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="L88" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="M88" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="N88" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="O88" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="P88" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q88" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="R88" s="24" t="s">
+      <c r="N88" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="O88" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="P88" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q88" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="R88" s="23" t="s">
         <v>466</v>
       </c>
-      <c r="S88" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="T88" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="U88" s="24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A89" s="24" t="n">
+      <c r="S88" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="T88" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="U88" s="23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21" ht="42.6" hidden="1" customHeight="1">
+      <c r="A89" s="23">
         <v>43</v>
       </c>
-      <c r="B89" s="24" t="s">
+      <c r="B89" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C89" s="24" t="s">
+      <c r="C89" s="23" t="s">
         <v>467</v>
       </c>
-      <c r="D89" s="24"/>
-      <c r="E89" s="24"/>
-      <c r="F89" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G89" s="24" t="s">
+      <c r="D89" s="23"/>
+      <c r="E89" s="23"/>
+      <c r="F89" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G89" s="23" t="s">
         <v>468</v>
       </c>
-      <c r="H89" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="I89" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="J89" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="K89" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="L89" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="M89" s="24" t="s">
+      <c r="H89" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="I89" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="J89" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="K89" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="L89" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="M89" s="23" t="s">
         <v>427</v>
       </c>
-      <c r="N89" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="O89" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="P89" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q89" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="R89" s="24" t="s">
+      <c r="N89" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="O89" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="P89" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q89" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="R89" s="23" t="s">
         <v>469</v>
       </c>
-      <c r="S89" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="T89" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="U89" s="24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A90" s="24" t="n">
+      <c r="S89" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="T89" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="U89" s="23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21" ht="42.6" hidden="1" customHeight="1">
+      <c r="A90" s="23">
         <v>46</v>
       </c>
-      <c r="B90" s="24" t="s">
+      <c r="B90" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C90" s="24" t="s">
+      <c r="C90" s="23" t="s">
         <v>470</v>
       </c>
-      <c r="D90" s="24"/>
-      <c r="E90" s="24"/>
-      <c r="F90" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G90" s="24" t="s">
+      <c r="D90" s="23"/>
+      <c r="E90" s="23"/>
+      <c r="F90" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G90" s="23" t="s">
         <v>471</v>
       </c>
-      <c r="H90" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="I90" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="J90" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="K90" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="L90" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="M90" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="N90" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="O90" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="P90" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q90" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="R90" s="24" t="s">
+      <c r="H90" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="I90" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="J90" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="K90" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="L90" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="M90" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="N90" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="O90" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="P90" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q90" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="R90" s="23" t="s">
         <v>472</v>
       </c>
-      <c r="S90" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="T90" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="U90" s="24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A91" s="24" t="n">
+      <c r="S90" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="T90" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="U90" s="23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21" ht="42.6" hidden="1" customHeight="1">
+      <c r="A91" s="23">
         <v>39</v>
       </c>
-      <c r="B91" s="24" t="s">
+      <c r="B91" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C91" s="24" t="s">
+      <c r="C91" s="23" t="s">
         <v>473</v>
       </c>
-      <c r="D91" s="24"/>
-      <c r="E91" s="24"/>
-      <c r="F91" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G91" s="24" t="s">
+      <c r="D91" s="23"/>
+      <c r="E91" s="23"/>
+      <c r="F91" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G91" s="23" t="s">
         <v>215</v>
       </c>
-      <c r="H91" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="I91" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="J91" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="K91" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="L91" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="M91" s="24" t="s">
+      <c r="H91" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="I91" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="J91" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="K91" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="L91" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="M91" s="23" t="s">
         <v>435</v>
       </c>
-      <c r="N91" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="O91" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="P91" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q91" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="R91" s="24" t="s">
+      <c r="N91" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="O91" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="P91" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q91" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="R91" s="23" t="s">
         <v>474</v>
       </c>
-      <c r="S91" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="T91" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="U91" s="24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="92" s="4" customFormat="true" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A92" s="24" t="n">
+      <c r="S91" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="T91" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="U91" s="23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="92" spans="1:21" s="4" customFormat="1" ht="42.6" hidden="1" customHeight="1">
+      <c r="A92" s="23">
         <v>40</v>
       </c>
-      <c r="B92" s="24" t="s">
+      <c r="B92" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C92" s="24" t="s">
+      <c r="C92" s="23" t="s">
         <v>475</v>
       </c>
-      <c r="D92" s="24"/>
-      <c r="E92" s="24"/>
-      <c r="F92" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G92" s="24" t="s">
+      <c r="D92" s="23"/>
+      <c r="E92" s="23"/>
+      <c r="F92" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G92" s="23" t="s">
         <v>476</v>
       </c>
-      <c r="H92" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="I92" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="J92" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="K92" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="L92" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="M92" s="24" t="s">
+      <c r="H92" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="I92" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="J92" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="K92" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="L92" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="M92" s="23" t="s">
         <v>431</v>
       </c>
-      <c r="N92" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="O92" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="P92" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q92" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="R92" s="24" t="s">
+      <c r="N92" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="O92" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="P92" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q92" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="R92" s="23" t="s">
         <v>477</v>
       </c>
-      <c r="S92" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="T92" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="U92" s="24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A93" s="16" t="n">
+      <c r="S92" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="T92" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="U92" s="23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="93" spans="1:21" ht="42.6" hidden="1" customHeight="1">
+      <c r="A93" s="15">
         <v>12</v>
       </c>
-      <c r="B93" s="17" t="s">
+      <c r="B93" s="16" t="s">
         <v>478</v>
       </c>
-      <c r="C93" s="18" t="s">
+      <c r="C93" s="17" t="s">
         <v>479</v>
       </c>
-      <c r="D93" s="18"/>
-      <c r="E93" s="18"/>
-      <c r="F93" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="G93" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="H93" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="I93" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="J93" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="K93" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="L93" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="M93" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="N93" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="O93" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="P93" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q93" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="R93" s="17" t="s">
+      <c r="D93" s="17"/>
+      <c r="E93" s="17"/>
+      <c r="F93" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G93" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="H93" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="I93" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="J93" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="K93" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="L93" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="M93" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="N93" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="O93" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="P93" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q93" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="R93" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="S93" s="17" t="s">
+      <c r="S93" s="16" t="s">
         <v>238</v>
       </c>
-      <c r="T93" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="U93" s="17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A94" s="17" t="n">
+      <c r="T93" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="U93" s="16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21" ht="42.6" hidden="1" customHeight="1">
+      <c r="A94" s="16">
         <v>13</v>
       </c>
-      <c r="B94" s="17" t="s">
+      <c r="B94" s="16" t="s">
         <v>480</v>
       </c>
-      <c r="C94" s="17" t="s">
+      <c r="C94" s="16" t="s">
         <v>481</v>
       </c>
-      <c r="D94" s="17"/>
-      <c r="E94" s="17"/>
-      <c r="F94" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="G94" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="H94" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="I94" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="J94" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="K94" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="L94" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="M94" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="N94" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="O94" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="P94" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q94" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="R94" s="17" t="s">
+      <c r="D94" s="16"/>
+      <c r="E94" s="16"/>
+      <c r="F94" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G94" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="H94" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="I94" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="J94" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="K94" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="L94" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="M94" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="N94" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="O94" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="P94" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q94" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="R94" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="S94" s="17" t="s">
+      <c r="S94" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="T94" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="U94" s="17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A95" s="17" t="n">
+      <c r="T94" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="U94" s="16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="95" spans="1:21" ht="42.6" hidden="1" customHeight="1">
+      <c r="A95" s="16">
         <v>49</v>
       </c>
-      <c r="B95" s="17" t="s">
+      <c r="B95" s="16" t="s">
         <v>482</v>
       </c>
-      <c r="C95" s="17" t="s">
+      <c r="C95" s="16" t="s">
         <v>483</v>
       </c>
-      <c r="D95" s="17"/>
-      <c r="E95" s="17"/>
-      <c r="F95" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="G95" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="H95" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="I95" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="J95" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="K95" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="L95" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="M95" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="N95" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="O95" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="P95" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q95" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="R95" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="S95" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="T95" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="U95" s="17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A96" s="17" t="n">
+      <c r="D95" s="16"/>
+      <c r="E95" s="16"/>
+      <c r="F95" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G95" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="H95" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="I95" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="J95" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="K95" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="L95" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="M95" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="N95" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="O95" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="P95" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q95" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="R95" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="S95" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="T95" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="U95" s="16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="96" spans="1:21" ht="42.6" hidden="1" customHeight="1">
+      <c r="A96" s="16">
         <v>73</v>
       </c>
-      <c r="B96" s="17" t="s">
+      <c r="B96" s="16" t="s">
         <v>484</v>
       </c>
-      <c r="C96" s="17" t="s">
+      <c r="C96" s="16" t="s">
         <v>485</v>
       </c>
-      <c r="D96" s="17"/>
-      <c r="E96" s="17"/>
-      <c r="F96" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="G96" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="H96" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="I96" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="J96" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="K96" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="L96" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="M96" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="N96" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="O96" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="P96" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q96" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="R96" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="S96" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="T96" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="U96" s="17" t="s">
+      <c r="D96" s="16"/>
+      <c r="E96" s="16"/>
+      <c r="F96" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G96" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="H96" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="I96" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="J96" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="K96" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="L96" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="M96" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="N96" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="O96" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="P96" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q96" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="R96" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="S96" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="T96" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="U96" s="16" t="s">
         <v>44</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A9:U96"/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <autoFilter ref="A9:U96" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="ICM-42688-P"/>
+        <filter val="ICM-42688-P_x000a_LPS22HH"/>
+      </filters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A60:U71">
+      <sortCondition ref="B9:B96"/>
+    </sortState>
+  </autoFilter>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<DataMashup xmlns="http://schemas.microsoft.com/DataMashup">AAAAABUDAABQSwMEFAACAAgAN4hFWiVa+qmlAAAA9gAAABIAHABDb25maWcvUGFja2FnZS54bWwgohgAKKAUAAAAAAAAAAAAAAAAAAAAAAAAAAAAhY9LDoIwAESvQrqnH0j8kFIWLpXEaGLcNqVCA7SGFsvdXHgkryBGUXcu581bzNyvN5oNbRNcZGeV0SkgEINAamEKpcsU9O4ULkDG6JaLmpcyGGVtk8EWKaicOycIee+hj6HpShRhTNAx3+xFJVsOPrL6L4dKW8e1kIDRw2sMiyCJl5DMZxBTNEGaK/0VonHvs/2BdNU3ru8kq0243lE0RYreH9gDUEsDBBQAAgAIADeIRVoPyumrpAAAAOkAAAATABwAW0NvbnRlbnRfVHlwZXNdLnhtbCCiGAAooBQAAAAAAAAAAAAAAAAAAAAAAAAAAABtjksOwjAMRK8SeZ+6sEAINWUB3IALRMH9iOajxkXhbCw4ElcgbXeIpWfmeebzelfHZAfxoDH23inYFCUIcsbfetcqmLiRezjW1fUZKIocdVFBxxwOiNF0ZHUsfCCXncaPVnM+xxaDNnfdEm7LcofGOybHkucfUFdnavQ0sLikLK+1GQdxWnNzlQKmxLjI+JewP3kdwtAbzdnEJG2UdiFxGV5/AVBLAwQUAAIACAA3iEVaKIpHuA4AAAARAAAAEwAcAEZvcm11bGFzL1NlY3Rpb24xLm0gohgAKKAUAAAAAAAAAAAAAAAAAAAAAAAAAAAAK05NLsnMz1MIhtCG1gBQSwECLQAUAAIACAA3iEVaJVr6qaUAAAD2AAAAEgAAAAAAAAAAAAAAAAAAAAAAQ29uZmlnL1BhY2thZ2UueG1sUEsBAi0AFAACAAgAN4hFWg/K6aukAAAA6QAAABMAAAAAAAAAAAAAAAAA8QAAAFtDb250ZW50X1R5cGVzXS54bWxQSwECLQAUAAIACAA3iEVaKIpHuA4AAAARAAAAEwAAAAAAAAAAAAAAAADiAQAARm9ybXVsYXMvU2VjdGlvbjEubVBLBQYAAAAAAwADAMIAAAA9AgAAAAAQAQAA77u/PD94bWwgdmVyc2lvbj0iMS4wIiBlbmNvZGluZz0idXRmLTgiPz48UGVybWlzc2lvbkxpc3QgeG1sbnM6eHNkPSJodHRwOi8vd3d3LnczLm9yZy8yMDAxL1hNTFNjaGVtYSIgeG1sbnM6eHNpPSJodHRwOi8vd3d3LnczLm9yZy8yMDAxL1hNTFNjaGVtYS1pbnN0YW5jZSI+PENhbkV2YWx1YXRlRnV0dXJlUGFja2FnZXM+ZmFsc2U8L0NhbkV2YWx1YXRlRnV0dXJlUGFja2FnZXM+PEZpcmV3YWxsRW5hYmxlZD50cnVlPC9GaXJld2FsbEVuYWJsZWQ+PC9QZXJtaXNzaW9uTGlzdD6XAQAAAAAAAHUBAADvu788P3htbCB2ZXJzaW9uPSIxLjAiIGVuY29kaW5nPSJ1dGYtOCI/PjxMb2NhbFBhY2thZ2VNZXRhZGF0YUZpbGUgeG1sbnM6eHNkPSJodHRwOi8vd3d3LnczLm9yZy8yMDAxL1hNTFNjaGVtYSIgeG1sbnM6eHNpPSJodHRwOi8vd3d3LnczLm9yZy8yMDAxL1hNTFNjaGVtYS1pbnN0YW5jZSI+PEl0ZW1zPjxJdGVtPjxJdGVtTG9jYXRpb24+PEl0ZW1UeXBlPkFsbEZvcm11bGFzPC9JdGVtVHlwZT48SXRlbVBhdGggLz48L0l0ZW1Mb2NhdGlvbj48U3RhYmxlRW50cmllcz48RW50cnkgVHlwZT0iUmVsYXRpb25zaGlwcyIgVmFsdWU9InNBQUFBQUE9PSIgLz48L1N0YWJsZUVudHJpZXM+PC9JdGVtPjwvSXRlbXM+PC9Mb2NhbFBhY2thZ2VNZXRhZGF0YUZpbGU+FgAAAFBLBQYAAAAAAAAAAAAAAAAAAAAAAAAmAQAAAQAAANCMnd8BFdERjHoAwE/Cl+sBAAAAoRFNHBKnnUCizE4mN2kFogAAAAACAAAAAAAQZgAAAAEAACAAAAA3Fs/DMZ3eIf7QCNdI8KcUfXOh/IAiR+3DU7Fqo2J3vAAAAAAOgAAAAAIAACAAAAAOyKFHrOvTwqpRH/rZRAtzoHshNousXkn6AVZxSsb9Y1AAAAAfwfSbW0JsgEBr5UPnZzEL8rwS/oeclZW07zbabYfl2Wzjprtv9y4wKEP5aB9l4biNu3Kqbg4O0gZ6fhXZW6J1CYPyYC+CZgK4W+P5n+h6D0AAAADALblrGFojMiqsI7roX2eLNPn3ptr+uBAmgBpBsQIRfdWEnQyN17sUZ9nBmL9uQQCdQzmIF/cjD/gbqRrPuFNt</DataMashup>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6CA523D-0020-4A42-9AD7-E22E697FBE32}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/DataMashup"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>